--- a/Översikt ALINGSÅS.xlsx
+++ b/Översikt ALINGSÅS.xlsx
@@ -572,7 +572,7 @@
         <v>44358</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44855</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>43738</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43770</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
         <v>44803</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43417</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43986</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44244</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44848</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45092</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>43334</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>43342</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>43347</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>43388</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>43395</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>43410</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>43417</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>43423</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>43430</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>43430</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>43438</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43444</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43444</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43444</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43446</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>43446</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43447</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43453</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43462</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>43462</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>43462</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>43468</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43489</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>43490</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43494</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43494</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43494</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43495</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43518</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43549</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>43556</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>43558</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43565</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>43571</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>43578</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>43584</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>43591</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>43592</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43592</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>43599</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>43602</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>43602</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>43608</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43620</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43628</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43630</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43633</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43635</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43636</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>43648</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43648</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>43650</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>43653</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>43657</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>43658</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>43665</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>43678</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43684</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>43684</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         <v>43686</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>43696</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>43698</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>43699</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>43711</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>43726</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>43733</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>43734</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>43734</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>43735</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5458,7 +5458,7 @@
         <v>43738</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5515,7 +5515,7 @@
         <v>43742</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         <v>43766</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>43774</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5686,7 +5686,7 @@
         <v>43783</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43784</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>43784</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>43788</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>43790</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5971,7 +5971,7 @@
         <v>43790</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
         <v>43794</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6085,7 +6085,7 @@
         <v>43795</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6142,7 +6142,7 @@
         <v>43802</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6199,7 +6199,7 @@
         <v>43816</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>43822</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>43837</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>43839</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         <v>43843</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         <v>43844</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6541,7 +6541,7 @@
         <v>43845</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         <v>43846</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6655,7 +6655,7 @@
         <v>43847</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6712,7 +6712,7 @@
         <v>43864</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>43879</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6826,7 +6826,7 @@
         <v>43879</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6883,7 +6883,7 @@
         <v>43882</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43886</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>43892</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43892</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43895</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43900</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43908</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         <v>43916</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         <v>43920</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7396,7 +7396,7 @@
         <v>43922</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7453,7 +7453,7 @@
         <v>43927</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7510,7 +7510,7 @@
         <v>43928</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         <v>43936</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>43938</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>43944</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7738,7 +7738,7 @@
         <v>43950</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         <v>43958</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7852,7 +7852,7 @@
         <v>43963</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
         <v>43975</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         <v>43978</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>43984</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>43985</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>43986</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>43986</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>43993</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>43993</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>44007</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8427,7 +8427,7 @@
         <v>44013</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8484,7 +8484,7 @@
         <v>44013</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>44025</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>44053</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>44105</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>44113</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         <v>44113</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>44117</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>44123</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8940,7 +8940,7 @@
         <v>44131</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>44131</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>44139</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>44147</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>44162</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>44167</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>44172</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>44182</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>44200</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>44211</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>44218</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44235</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>44242</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>44243</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>44243</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>44251</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44252</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44258</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44263</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44266</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44271</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44298</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44315</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44332</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>44333</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44335</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>44355</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>44357</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>44358</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>44376</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>44378</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>44378</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>44378</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>44389</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44389</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44427</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44439</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44445</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44446</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44447</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44456</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44461</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44461</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44488</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44496</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44510</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44515</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>44516</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>44516</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>44550</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>44568</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>44572</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>44582</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>44603</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>44614</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>44614</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>44628</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>44637</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>44672</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>44672</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>44726</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>44726</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>44727</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>44727</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>44740</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>44773</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>44795</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>44805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>44809</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>44809</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>44817</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>44821</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>44826</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>44826</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>44830</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>44831</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>44852</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>44852</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>44855</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>44864</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>44868</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>44896</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13639,7 +13639,7 @@
         <v>44896</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13696,7 +13696,7 @@
         <v>44896</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>44903</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>44903</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13877,7 +13877,7 @@
         <v>44916</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13934,7 +13934,7 @@
         <v>44949</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13991,7 +13991,7 @@
         <v>44953</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14048,7 +14048,7 @@
         <v>44953</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14105,7 +14105,7 @@
         <v>44953</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14162,7 +14162,7 @@
         <v>44953</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14219,7 +14219,7 @@
         <v>44956</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14276,7 +14276,7 @@
         <v>44959</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14333,7 +14333,7 @@
         <v>44964</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>44974</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14447,7 +14447,7 @@
         <v>44977</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14504,7 +14504,7 @@
         <v>44979</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>44984</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44984</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44991</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14732,7 +14732,7 @@
         <v>45000</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>45006</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14846,7 +14846,7 @@
         <v>45010</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>45011</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14960,7 +14960,7 @@
         <v>45015</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15017,7 +15017,7 @@
         <v>45015</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15074,7 +15074,7 @@
         <v>45035</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>45048</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15188,7 +15188,7 @@
         <v>45051</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15245,7 +15245,7 @@
         <v>45051</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15302,7 +15302,7 @@
         <v>45051</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15359,7 +15359,7 @@
         <v>45075</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15416,7 +15416,7 @@
         <v>45076</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15473,7 +15473,7 @@
         <v>45091</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15530,7 +15530,7 @@
         <v>45092</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15587,7 +15587,7 @@
         <v>45097</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15644,7 +15644,7 @@
         <v>45105</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15701,7 +15701,7 @@
         <v>45118</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15758,7 +15758,7 @@
         <v>45126</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15815,7 +15815,7 @@
         <v>45149</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15872,7 +15872,7 @@
         <v>45168</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>

--- a/Översikt ALINGSÅS.xlsx
+++ b/Översikt ALINGSÅS.xlsx
@@ -572,7 +572,7 @@
         <v>44358</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44855</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>43738</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43770</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
         <v>44803</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43417</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43986</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44244</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44848</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45092</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>43334</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>43342</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>43347</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>43388</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>43395</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>43410</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>43417</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>43423</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>43430</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>43430</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>43438</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43444</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43444</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43444</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43446</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>43446</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43447</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43453</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43462</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>43462</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>43462</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>43468</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43489</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>43490</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43494</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43494</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43494</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43495</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43518</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43549</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>43556</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>43558</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43565</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>43571</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>43578</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>43584</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>43591</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>43592</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43592</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>43599</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>43602</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>43602</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>43608</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43620</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43628</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43630</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43633</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43635</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43636</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>43648</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43648</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>43650</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>43653</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>43657</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>43658</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>43665</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>43678</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43684</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>43684</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         <v>43686</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>43696</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>43698</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>43699</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>43711</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>43726</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>43733</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>43734</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>43734</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>43735</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5458,7 +5458,7 @@
         <v>43738</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5515,7 +5515,7 @@
         <v>43742</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         <v>43766</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>43774</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5686,7 +5686,7 @@
         <v>43783</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43784</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>43784</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>43788</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>43790</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5971,7 +5971,7 @@
         <v>43790</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
         <v>43794</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6085,7 +6085,7 @@
         <v>43795</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6142,7 +6142,7 @@
         <v>43802</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6199,7 +6199,7 @@
         <v>43816</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>43822</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>43837</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>43839</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         <v>43843</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         <v>43844</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6541,7 +6541,7 @@
         <v>43845</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         <v>43846</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6655,7 +6655,7 @@
         <v>43847</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6712,7 +6712,7 @@
         <v>43864</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>43879</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6826,7 +6826,7 @@
         <v>43879</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6883,7 +6883,7 @@
         <v>43882</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43886</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>43892</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43892</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43895</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43900</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43908</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         <v>43916</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         <v>43920</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7396,7 +7396,7 @@
         <v>43922</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7453,7 +7453,7 @@
         <v>43927</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7510,7 +7510,7 @@
         <v>43928</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         <v>43936</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>43938</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>43944</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7738,7 +7738,7 @@
         <v>43950</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         <v>43958</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7852,7 +7852,7 @@
         <v>43963</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
         <v>43975</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         <v>43978</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>43984</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>43985</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>43986</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>43986</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>43993</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>43993</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>44007</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8427,7 +8427,7 @@
         <v>44013</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8484,7 +8484,7 @@
         <v>44013</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>44025</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>44053</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>44105</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>44113</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         <v>44113</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>44117</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>44123</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8940,7 +8940,7 @@
         <v>44131</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>44131</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>44139</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>44147</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>44162</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>44167</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>44172</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>44182</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>44200</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>44211</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>44218</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44235</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>44242</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>44243</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>44243</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>44251</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44252</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44258</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44263</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44266</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44271</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44298</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44315</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44332</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>44333</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44335</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>44355</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>44357</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>44358</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>44376</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>44378</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>44378</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>44378</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>44389</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44389</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44427</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44439</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44445</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44446</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44447</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44456</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44461</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44461</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44488</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44496</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44510</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44515</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>44516</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>44516</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>44550</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>44568</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>44572</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>44582</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>44603</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>44614</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>44614</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>44628</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>44637</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>44672</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>44672</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>44726</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>44726</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>44727</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>44727</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>44740</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>44773</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>44795</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>44805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>44809</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>44809</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>44817</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>44821</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>44826</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>44826</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>44830</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>44831</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>44852</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>44852</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>44855</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>44864</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>44868</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>44896</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13639,7 +13639,7 @@
         <v>44896</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13696,7 +13696,7 @@
         <v>44896</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>44903</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>44903</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13877,7 +13877,7 @@
         <v>44916</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13934,7 +13934,7 @@
         <v>44949</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13991,7 +13991,7 @@
         <v>44953</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14048,7 +14048,7 @@
         <v>44953</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14105,7 +14105,7 @@
         <v>44953</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14162,7 +14162,7 @@
         <v>44953</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14219,7 +14219,7 @@
         <v>44956</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14276,7 +14276,7 @@
         <v>44959</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14333,7 +14333,7 @@
         <v>44964</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>44974</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14447,7 +14447,7 @@
         <v>44977</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14504,7 +14504,7 @@
         <v>44979</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>44984</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44984</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44991</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14732,7 +14732,7 @@
         <v>45000</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>45006</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14846,7 +14846,7 @@
         <v>45010</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>45011</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14960,7 +14960,7 @@
         <v>45015</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15017,7 +15017,7 @@
         <v>45015</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15074,7 +15074,7 @@
         <v>45035</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>45048</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15188,7 +15188,7 @@
         <v>45051</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15245,7 +15245,7 @@
         <v>45051</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15302,7 +15302,7 @@
         <v>45051</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15359,7 +15359,7 @@
         <v>45075</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15416,7 +15416,7 @@
         <v>45076</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15473,7 +15473,7 @@
         <v>45091</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15530,7 +15530,7 @@
         <v>45092</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15587,7 +15587,7 @@
         <v>45097</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15644,7 +15644,7 @@
         <v>45105</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15701,7 +15701,7 @@
         <v>45118</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15758,7 +15758,7 @@
         <v>45126</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15815,7 +15815,7 @@
         <v>45149</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15872,7 +15872,7 @@
         <v>45168</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>

--- a/Översikt ALINGSÅS.xlsx
+++ b/Översikt ALINGSÅS.xlsx
@@ -572,7 +572,7 @@
         <v>44358</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44855</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>43738</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43770</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
         <v>44803</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43417</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43986</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44244</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44848</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45092</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>43334</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>43342</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>43347</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>43388</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>43395</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>43410</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>43417</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>43423</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>43430</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>43430</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>43438</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43444</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43444</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43444</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43446</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>43446</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43447</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43453</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43462</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>43462</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>43462</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>43468</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43489</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>43490</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43494</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43494</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43494</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43495</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43518</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43549</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>43556</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>43558</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43565</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>43571</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>43578</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>43584</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>43591</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>43592</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43592</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>43599</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>43602</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>43602</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>43608</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43620</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43628</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43630</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43633</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43635</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43636</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>43648</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43648</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>43650</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>43653</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>43657</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>43658</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>43665</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>43678</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43684</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>43684</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         <v>43686</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>43696</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>43698</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>43699</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>43711</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>43726</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>43733</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>43734</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>43734</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>43735</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5458,7 +5458,7 @@
         <v>43738</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5515,7 +5515,7 @@
         <v>43742</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         <v>43766</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>43774</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5686,7 +5686,7 @@
         <v>43783</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43784</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>43784</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>43788</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>43790</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5971,7 +5971,7 @@
         <v>43790</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
         <v>43794</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6085,7 +6085,7 @@
         <v>43795</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6142,7 +6142,7 @@
         <v>43802</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6199,7 +6199,7 @@
         <v>43816</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>43822</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>43837</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>43839</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         <v>43843</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         <v>43844</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6541,7 +6541,7 @@
         <v>43845</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         <v>43846</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6655,7 +6655,7 @@
         <v>43847</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6712,7 +6712,7 @@
         <v>43864</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>43879</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6826,7 +6826,7 @@
         <v>43879</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6883,7 +6883,7 @@
         <v>43882</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43886</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>43892</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43892</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43895</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43900</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43908</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         <v>43916</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         <v>43920</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7396,7 +7396,7 @@
         <v>43922</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7453,7 +7453,7 @@
         <v>43927</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7510,7 +7510,7 @@
         <v>43928</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         <v>43936</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>43938</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>43944</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7738,7 +7738,7 @@
         <v>43950</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         <v>43958</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7852,7 +7852,7 @@
         <v>43963</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
         <v>43975</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         <v>43978</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>43984</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>43985</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>43986</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>43986</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>43993</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>43993</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>44007</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8427,7 +8427,7 @@
         <v>44013</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8484,7 +8484,7 @@
         <v>44013</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>44025</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>44053</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>44105</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>44113</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         <v>44113</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>44117</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>44123</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8940,7 +8940,7 @@
         <v>44131</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>44131</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>44139</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>44147</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>44162</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>44167</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>44172</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>44182</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>44200</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>44211</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>44218</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44235</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>44242</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>44243</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>44243</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>44251</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44252</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44258</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44263</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44266</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44271</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44298</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44315</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44332</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>44333</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44335</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>44355</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>44357</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>44358</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>44376</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>44378</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>44378</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>44378</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>44389</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44389</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44427</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44439</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44445</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44446</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44447</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44456</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44461</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44461</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44488</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44496</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44510</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44515</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>44516</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>44516</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>44550</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>44568</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>44572</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>44582</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>44603</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>44614</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>44614</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>44628</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>44637</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>44672</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>44672</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>44726</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>44726</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>44727</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>44727</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>44740</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>44773</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>44795</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>44805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>44809</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>44809</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>44817</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>44821</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>44826</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>44826</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>44830</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>44831</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>44852</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>44852</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>44855</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>44864</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>44868</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>44896</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13639,7 +13639,7 @@
         <v>44896</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13696,7 +13696,7 @@
         <v>44896</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>44903</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>44903</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13877,7 +13877,7 @@
         <v>44916</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13934,7 +13934,7 @@
         <v>44949</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13991,7 +13991,7 @@
         <v>44953</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14048,7 +14048,7 @@
         <v>44953</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14105,7 +14105,7 @@
         <v>44953</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14162,7 +14162,7 @@
         <v>44953</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14219,7 +14219,7 @@
         <v>44956</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14276,7 +14276,7 @@
         <v>44959</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14333,7 +14333,7 @@
         <v>44964</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>44974</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14447,7 +14447,7 @@
         <v>44977</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14504,7 +14504,7 @@
         <v>44979</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>44984</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44984</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44991</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14732,7 +14732,7 @@
         <v>45000</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>45006</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14846,7 +14846,7 @@
         <v>45010</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>45011</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14960,7 +14960,7 @@
         <v>45015</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15017,7 +15017,7 @@
         <v>45015</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15074,7 +15074,7 @@
         <v>45035</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>45048</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15188,7 +15188,7 @@
         <v>45051</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15245,7 +15245,7 @@
         <v>45051</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15302,7 +15302,7 @@
         <v>45051</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15359,7 +15359,7 @@
         <v>45075</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15416,7 +15416,7 @@
         <v>45076</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15473,7 +15473,7 @@
         <v>45091</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15530,7 +15530,7 @@
         <v>45092</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15587,7 +15587,7 @@
         <v>45097</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15644,7 +15644,7 @@
         <v>45105</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15701,7 +15701,7 @@
         <v>45118</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15758,7 +15758,7 @@
         <v>45126</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15815,7 +15815,7 @@
         <v>45149</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15872,7 +15872,7 @@
         <v>45168</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>

--- a/Översikt ALINGSÅS.xlsx
+++ b/Översikt ALINGSÅS.xlsx
@@ -572,7 +572,7 @@
         <v>44358</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44855</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>43738</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43770</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
         <v>44803</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43417</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43986</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44244</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44848</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45092</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>43334</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>43342</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>43347</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>43388</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>43395</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>43410</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>43417</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>43423</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>43430</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>43430</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>43438</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43444</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43444</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43444</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43446</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>43446</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43447</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43453</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43462</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>43462</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>43462</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>43468</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43489</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>43490</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43494</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43494</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43494</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43495</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43518</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43549</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>43556</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>43558</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43565</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>43571</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>43578</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>43584</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>43591</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>43592</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43592</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>43599</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>43602</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>43602</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>43608</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43620</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43628</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43630</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43633</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43635</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43636</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>43648</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43648</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>43650</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>43653</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>43657</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>43658</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>43665</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>43678</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43684</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>43684</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         <v>43686</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>43696</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>43698</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>43699</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>43711</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>43726</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>43733</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>43734</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>43734</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>43735</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5458,7 +5458,7 @@
         <v>43738</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5515,7 +5515,7 @@
         <v>43742</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         <v>43766</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>43774</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5686,7 +5686,7 @@
         <v>43783</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43784</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>43784</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>43788</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>43790</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5971,7 +5971,7 @@
         <v>43790</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
         <v>43794</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6085,7 +6085,7 @@
         <v>43795</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6142,7 +6142,7 @@
         <v>43802</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6199,7 +6199,7 @@
         <v>43816</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>43822</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>43837</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>43839</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         <v>43843</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         <v>43844</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6541,7 +6541,7 @@
         <v>43845</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         <v>43846</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6655,7 +6655,7 @@
         <v>43847</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6712,7 +6712,7 @@
         <v>43864</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>43879</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6826,7 +6826,7 @@
         <v>43879</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6883,7 +6883,7 @@
         <v>43882</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43886</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>43892</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43892</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43895</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43900</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43908</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         <v>43916</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         <v>43920</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7396,7 +7396,7 @@
         <v>43922</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7453,7 +7453,7 @@
         <v>43927</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7510,7 +7510,7 @@
         <v>43928</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         <v>43936</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>43938</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>43944</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7738,7 +7738,7 @@
         <v>43950</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         <v>43958</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7852,7 +7852,7 @@
         <v>43963</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
         <v>43975</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         <v>43978</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>43984</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>43985</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>43986</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>43986</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>43993</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>43993</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>44007</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8427,7 +8427,7 @@
         <v>44013</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8484,7 +8484,7 @@
         <v>44013</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>44025</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>44053</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>44105</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>44113</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         <v>44113</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>44117</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>44123</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8940,7 +8940,7 @@
         <v>44131</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>44131</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>44139</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>44147</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>44162</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>44167</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>44172</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>44182</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>44200</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>44211</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>44218</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44235</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>44242</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>44243</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>44243</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>44251</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44252</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44258</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44263</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44266</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44271</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44298</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44315</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44332</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>44333</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44335</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>44355</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>44357</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>44358</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>44376</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>44378</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>44378</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>44378</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>44389</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44389</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44427</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44439</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44445</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44446</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44447</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44456</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44461</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44461</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44488</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44496</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44510</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44515</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>44516</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>44516</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>44550</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>44568</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>44572</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>44582</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>44603</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>44614</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>44614</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>44628</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>44637</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>44672</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>44672</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>44726</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>44726</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>44727</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>44727</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>44740</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>44773</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>44795</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>44805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>44809</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>44809</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>44817</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>44821</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>44826</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>44826</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>44830</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>44831</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>44852</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>44852</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>44855</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>44864</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>44868</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>44896</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13639,7 +13639,7 @@
         <v>44896</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13696,7 +13696,7 @@
         <v>44896</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>44903</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>44903</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13877,7 +13877,7 @@
         <v>44916</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13934,7 +13934,7 @@
         <v>44949</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13991,7 +13991,7 @@
         <v>44953</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14048,7 +14048,7 @@
         <v>44953</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14105,7 +14105,7 @@
         <v>44953</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14162,7 +14162,7 @@
         <v>44953</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14219,7 +14219,7 @@
         <v>44956</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14276,7 +14276,7 @@
         <v>44959</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14333,7 +14333,7 @@
         <v>44964</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>44974</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14447,7 +14447,7 @@
         <v>44977</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14504,7 +14504,7 @@
         <v>44979</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>44984</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44984</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44991</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14732,7 +14732,7 @@
         <v>45000</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>45006</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14846,7 +14846,7 @@
         <v>45010</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>45011</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14960,7 +14960,7 @@
         <v>45015</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15017,7 +15017,7 @@
         <v>45015</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15074,7 +15074,7 @@
         <v>45035</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>45048</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15188,7 +15188,7 @@
         <v>45051</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15245,7 +15245,7 @@
         <v>45051</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15302,7 +15302,7 @@
         <v>45051</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15359,7 +15359,7 @@
         <v>45075</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15416,7 +15416,7 @@
         <v>45076</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15473,7 +15473,7 @@
         <v>45091</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15530,7 +15530,7 @@
         <v>45092</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15587,7 +15587,7 @@
         <v>45097</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15644,7 +15644,7 @@
         <v>45105</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15701,7 +15701,7 @@
         <v>45118</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15758,7 +15758,7 @@
         <v>45126</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15815,7 +15815,7 @@
         <v>45149</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15872,7 +15872,7 @@
         <v>45168</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>

--- a/Översikt ALINGSÅS.xlsx
+++ b/Översikt ALINGSÅS.xlsx
@@ -572,7 +572,7 @@
         <v>44358</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44855</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>43738</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43770</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
         <v>44803</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43417</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43986</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44244</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44848</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45092</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>43334</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>43342</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>43347</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>43388</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>43395</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>43410</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>43417</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>43423</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>43430</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>43430</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>43438</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43444</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43444</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43444</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43446</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>43446</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43447</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43453</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43462</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>43462</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>43462</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>43468</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43489</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>43490</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43494</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43494</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43494</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43495</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43518</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43549</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>43556</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>43558</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43565</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>43571</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>43578</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>43584</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>43591</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>43592</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43592</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>43599</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>43602</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>43602</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>43608</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43620</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43628</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43630</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43633</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43635</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43636</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>43648</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43648</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>43650</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>43653</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>43657</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>43658</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>43665</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>43678</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43684</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>43684</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         <v>43686</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>43696</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>43698</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>43699</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>43711</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>43726</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>43733</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>43734</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>43734</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>43735</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5458,7 +5458,7 @@
         <v>43738</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5515,7 +5515,7 @@
         <v>43742</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         <v>43766</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>43774</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5686,7 +5686,7 @@
         <v>43783</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43784</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>43784</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>43788</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>43790</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5971,7 +5971,7 @@
         <v>43790</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
         <v>43794</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6085,7 +6085,7 @@
         <v>43795</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6142,7 +6142,7 @@
         <v>43802</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6199,7 +6199,7 @@
         <v>43816</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>43822</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>43837</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>43839</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         <v>43843</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         <v>43844</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6541,7 +6541,7 @@
         <v>43845</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         <v>43846</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6655,7 +6655,7 @@
         <v>43847</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6712,7 +6712,7 @@
         <v>43864</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>43879</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6826,7 +6826,7 @@
         <v>43879</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6883,7 +6883,7 @@
         <v>43882</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43886</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>43892</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43892</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43895</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43900</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43908</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         <v>43916</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         <v>43920</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7396,7 +7396,7 @@
         <v>43922</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7453,7 +7453,7 @@
         <v>43927</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7510,7 +7510,7 @@
         <v>43928</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         <v>43936</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>43938</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>43944</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7738,7 +7738,7 @@
         <v>43950</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         <v>43958</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7852,7 +7852,7 @@
         <v>43963</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
         <v>43975</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         <v>43978</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>43984</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>43985</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>43986</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>43986</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>43993</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>43993</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>44007</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8427,7 +8427,7 @@
         <v>44013</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8484,7 +8484,7 @@
         <v>44013</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>44025</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>44053</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>44105</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>44113</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         <v>44113</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>44117</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>44123</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8940,7 +8940,7 @@
         <v>44131</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>44131</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>44139</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>44147</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>44162</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>44167</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>44172</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>44182</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>44200</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>44211</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>44218</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44235</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>44242</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>44243</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>44243</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>44251</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44252</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44258</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44263</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44266</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44271</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44298</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44315</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44332</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>44333</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44335</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>44355</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>44357</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>44358</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>44376</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>44378</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>44378</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>44378</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>44389</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44389</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44427</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44439</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44445</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44446</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44447</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44456</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44461</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44461</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44488</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44496</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44510</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44515</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>44516</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>44516</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>44550</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>44568</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>44572</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>44582</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>44603</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>44614</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>44614</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>44628</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>44637</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>44672</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>44672</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>44726</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>44726</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>44727</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>44727</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>44740</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>44773</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>44795</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>44805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>44809</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>44809</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>44817</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>44821</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>44826</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>44826</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>44830</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>44831</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>44852</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>44852</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>44855</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>44864</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>44868</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>44896</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13639,7 +13639,7 @@
         <v>44896</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13696,7 +13696,7 @@
         <v>44896</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>44903</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>44903</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13877,7 +13877,7 @@
         <v>44916</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13934,7 +13934,7 @@
         <v>44949</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13991,7 +13991,7 @@
         <v>44953</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14048,7 +14048,7 @@
         <v>44953</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14105,7 +14105,7 @@
         <v>44953</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14162,7 +14162,7 @@
         <v>44953</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14219,7 +14219,7 @@
         <v>44956</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14276,7 +14276,7 @@
         <v>44959</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14333,7 +14333,7 @@
         <v>44964</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>44974</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14447,7 +14447,7 @@
         <v>44977</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14504,7 +14504,7 @@
         <v>44979</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>44984</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44984</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44991</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14732,7 +14732,7 @@
         <v>45000</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>45006</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14846,7 +14846,7 @@
         <v>45010</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>45011</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14960,7 +14960,7 @@
         <v>45015</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15017,7 +15017,7 @@
         <v>45015</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15074,7 +15074,7 @@
         <v>45035</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>45048</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15188,7 +15188,7 @@
         <v>45051</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15245,7 +15245,7 @@
         <v>45051</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15302,7 +15302,7 @@
         <v>45051</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15359,7 +15359,7 @@
         <v>45075</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15416,7 +15416,7 @@
         <v>45076</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15473,7 +15473,7 @@
         <v>45091</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15530,7 +15530,7 @@
         <v>45092</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15587,7 +15587,7 @@
         <v>45097</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15644,7 +15644,7 @@
         <v>45105</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15701,7 +15701,7 @@
         <v>45118</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15758,7 +15758,7 @@
         <v>45126</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15815,7 +15815,7 @@
         <v>45149</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15872,7 +15872,7 @@
         <v>45168</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>

--- a/Översikt ALINGSÅS.xlsx
+++ b/Översikt ALINGSÅS.xlsx
@@ -572,7 +572,7 @@
         <v>44358</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44855</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>43738</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43770</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
         <v>44803</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43417</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43986</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44244</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44848</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45092</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>43334</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>43342</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>43347</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>43388</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>43395</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>43410</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>43417</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>43423</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>43430</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>43430</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>43438</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43444</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43444</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43444</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43446</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>43446</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43447</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43453</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43462</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>43462</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>43462</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>43468</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43489</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>43490</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43494</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43494</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43494</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43495</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43518</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43549</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>43556</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>43558</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43565</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>43571</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>43578</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>43584</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>43591</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>43592</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43592</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>43599</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>43602</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>43602</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>43608</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43620</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43628</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43630</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43633</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43635</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43636</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>43648</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43648</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>43650</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>43653</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>43657</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>43658</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>43665</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>43678</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43684</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>43684</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         <v>43686</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>43696</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>43698</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>43699</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>43711</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>43726</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>43733</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>43734</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>43734</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>43735</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5458,7 +5458,7 @@
         <v>43738</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5515,7 +5515,7 @@
         <v>43742</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         <v>43766</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>43774</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5686,7 +5686,7 @@
         <v>43783</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43784</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>43784</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>43788</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>43790</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5971,7 +5971,7 @@
         <v>43790</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
         <v>43794</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6085,7 +6085,7 @@
         <v>43795</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6142,7 +6142,7 @@
         <v>43802</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6199,7 +6199,7 @@
         <v>43816</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>43822</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>43837</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>43839</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         <v>43843</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         <v>43844</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6541,7 +6541,7 @@
         <v>43845</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         <v>43846</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6655,7 +6655,7 @@
         <v>43847</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6712,7 +6712,7 @@
         <v>43864</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>43879</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6826,7 +6826,7 @@
         <v>43879</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6883,7 +6883,7 @@
         <v>43882</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43886</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>43892</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43892</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43895</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43900</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43908</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         <v>43916</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         <v>43920</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7396,7 +7396,7 @@
         <v>43922</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7453,7 +7453,7 @@
         <v>43927</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7510,7 +7510,7 @@
         <v>43928</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         <v>43936</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>43938</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>43944</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7738,7 +7738,7 @@
         <v>43950</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         <v>43958</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7852,7 +7852,7 @@
         <v>43963</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
         <v>43975</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         <v>43978</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>43984</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>43985</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>43986</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>43986</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>43993</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>43993</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>44007</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8427,7 +8427,7 @@
         <v>44013</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8484,7 +8484,7 @@
         <v>44013</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>44025</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>44053</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>44105</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>44113</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         <v>44113</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>44117</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>44123</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8940,7 +8940,7 @@
         <v>44131</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>44131</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>44139</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>44147</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>44162</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>44167</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>44172</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>44182</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>44200</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>44211</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>44218</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44235</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>44242</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>44243</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>44243</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>44251</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44252</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44258</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44263</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44266</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44271</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44298</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44315</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44332</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>44333</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44335</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>44355</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>44357</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>44358</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>44376</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>44378</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>44378</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>44378</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>44389</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44389</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44427</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44439</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44445</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44446</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44447</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44456</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44461</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44461</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44488</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44496</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44510</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44515</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>44516</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>44516</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>44550</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>44568</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>44572</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>44582</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>44603</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>44614</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>44614</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>44628</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>44637</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>44672</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>44672</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>44726</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>44726</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>44727</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>44727</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>44740</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>44773</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>44795</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>44805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>44809</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>44809</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>44817</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>44821</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>44826</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>44826</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>44830</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>44831</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>44852</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>44852</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>44855</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>44864</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>44868</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>44896</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13639,7 +13639,7 @@
         <v>44896</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13696,7 +13696,7 @@
         <v>44896</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>44903</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>44903</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13877,7 +13877,7 @@
         <v>44916</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13934,7 +13934,7 @@
         <v>44949</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13991,7 +13991,7 @@
         <v>44953</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14048,7 +14048,7 @@
         <v>44953</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14105,7 +14105,7 @@
         <v>44953</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14162,7 +14162,7 @@
         <v>44953</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14219,7 +14219,7 @@
         <v>44956</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14276,7 +14276,7 @@
         <v>44959</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14333,7 +14333,7 @@
         <v>44964</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>44974</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14447,7 +14447,7 @@
         <v>44977</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14504,7 +14504,7 @@
         <v>44979</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>44984</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44984</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44991</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14732,7 +14732,7 @@
         <v>45000</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>45006</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14846,7 +14846,7 @@
         <v>45010</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>45011</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14960,7 +14960,7 @@
         <v>45015</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15017,7 +15017,7 @@
         <v>45015</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15074,7 +15074,7 @@
         <v>45035</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>45048</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15188,7 +15188,7 @@
         <v>45051</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15245,7 +15245,7 @@
         <v>45051</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15302,7 +15302,7 @@
         <v>45051</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15359,7 +15359,7 @@
         <v>45075</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15416,7 +15416,7 @@
         <v>45076</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15473,7 +15473,7 @@
         <v>45091</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15530,7 +15530,7 @@
         <v>45092</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15587,7 +15587,7 @@
         <v>45097</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15644,7 +15644,7 @@
         <v>45105</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15701,7 +15701,7 @@
         <v>45118</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15758,7 +15758,7 @@
         <v>45126</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15815,7 +15815,7 @@
         <v>45149</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15872,7 +15872,7 @@
         <v>45168</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>

--- a/Översikt ALINGSÅS.xlsx
+++ b/Översikt ALINGSÅS.xlsx
@@ -572,7 +572,7 @@
         <v>44358</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44855</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>43738</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43770</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
         <v>44803</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43417</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43986</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44244</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44848</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45092</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>43334</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>43342</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>43347</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>43388</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>43395</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>43410</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>43417</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>43423</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>43430</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>43430</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>43438</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43444</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43444</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43444</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43446</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>43446</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43447</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43453</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43462</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>43462</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>43462</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>43468</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43489</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>43490</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43494</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43494</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43494</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43495</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43518</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43549</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>43556</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>43558</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43565</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>43571</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>43578</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>43584</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>43591</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>43592</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43592</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>43599</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>43602</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>43602</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>43608</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43620</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43628</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43630</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43633</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43635</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43636</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>43648</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43648</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>43650</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>43653</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>43657</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>43658</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>43665</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>43678</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43684</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>43684</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         <v>43686</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>43696</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>43698</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>43699</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>43711</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>43726</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>43733</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>43734</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>43734</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>43735</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5458,7 +5458,7 @@
         <v>43738</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5515,7 +5515,7 @@
         <v>43742</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         <v>43766</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>43774</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5686,7 +5686,7 @@
         <v>43783</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43784</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>43784</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>43788</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>43790</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5971,7 +5971,7 @@
         <v>43790</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
         <v>43794</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6085,7 +6085,7 @@
         <v>43795</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6142,7 +6142,7 @@
         <v>43802</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6199,7 +6199,7 @@
         <v>43816</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>43822</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>43837</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>43839</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         <v>43843</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         <v>43844</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6541,7 +6541,7 @@
         <v>43845</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         <v>43846</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6655,7 +6655,7 @@
         <v>43847</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6712,7 +6712,7 @@
         <v>43864</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>43879</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6826,7 +6826,7 @@
         <v>43879</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6883,7 +6883,7 @@
         <v>43882</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43886</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>43892</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43892</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43895</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43900</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43908</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         <v>43916</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         <v>43920</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7396,7 +7396,7 @@
         <v>43922</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7453,7 +7453,7 @@
         <v>43927</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7510,7 +7510,7 @@
         <v>43928</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         <v>43936</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>43938</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>43944</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7738,7 +7738,7 @@
         <v>43950</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         <v>43958</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7852,7 +7852,7 @@
         <v>43963</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
         <v>43975</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         <v>43978</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>43984</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>43985</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>43986</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>43986</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>43993</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>43993</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>44007</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8427,7 +8427,7 @@
         <v>44013</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8484,7 +8484,7 @@
         <v>44013</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>44025</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>44053</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>44105</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>44113</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         <v>44113</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>44117</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>44123</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8940,7 +8940,7 @@
         <v>44131</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>44131</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>44139</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>44147</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>44162</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>44167</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>44172</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>44182</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>44200</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>44211</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>44218</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44235</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>44242</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>44243</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>44243</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>44251</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44252</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44258</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44263</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44266</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44271</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44298</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44315</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44332</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>44333</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44335</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>44355</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>44357</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>44358</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>44376</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>44378</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>44378</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>44378</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>44389</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44389</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44427</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44439</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44445</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44446</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44447</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44456</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44461</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44461</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44488</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44496</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44510</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44515</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>44516</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>44516</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>44550</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>44568</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>44572</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>44582</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>44603</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>44614</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>44614</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>44628</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>44637</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>44672</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>44672</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>44726</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>44726</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>44727</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>44727</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>44740</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>44773</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>44795</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>44805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>44809</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>44809</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>44817</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>44821</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>44826</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>44826</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>44830</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>44831</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>44852</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>44852</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>44855</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>44864</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>44868</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>44896</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13639,7 +13639,7 @@
         <v>44896</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13696,7 +13696,7 @@
         <v>44896</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>44903</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>44903</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13877,7 +13877,7 @@
         <v>44916</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13934,7 +13934,7 @@
         <v>44949</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13991,7 +13991,7 @@
         <v>44953</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14048,7 +14048,7 @@
         <v>44953</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14105,7 +14105,7 @@
         <v>44953</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14162,7 +14162,7 @@
         <v>44953</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14219,7 +14219,7 @@
         <v>44956</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14276,7 +14276,7 @@
         <v>44959</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14333,7 +14333,7 @@
         <v>44964</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>44974</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14447,7 +14447,7 @@
         <v>44977</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14504,7 +14504,7 @@
         <v>44979</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>44984</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44984</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44991</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14732,7 +14732,7 @@
         <v>45000</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>45006</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14846,7 +14846,7 @@
         <v>45010</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>45011</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14960,7 +14960,7 @@
         <v>45015</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15017,7 +15017,7 @@
         <v>45015</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15074,7 +15074,7 @@
         <v>45035</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>45048</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15188,7 +15188,7 @@
         <v>45051</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15245,7 +15245,7 @@
         <v>45051</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15302,7 +15302,7 @@
         <v>45051</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15359,7 +15359,7 @@
         <v>45075</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15416,7 +15416,7 @@
         <v>45076</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15473,7 +15473,7 @@
         <v>45091</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15530,7 +15530,7 @@
         <v>45092</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15587,7 +15587,7 @@
         <v>45097</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15644,7 +15644,7 @@
         <v>45105</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15701,7 +15701,7 @@
         <v>45118</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15758,7 +15758,7 @@
         <v>45126</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15815,7 +15815,7 @@
         <v>45149</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15872,7 +15872,7 @@
         <v>45168</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>

--- a/Översikt ALINGSÅS.xlsx
+++ b/Översikt ALINGSÅS.xlsx
@@ -572,7 +572,7 @@
         <v>44358</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44855</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>43738</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43770</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
         <v>44803</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43417</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43986</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44244</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44848</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45092</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>43334</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>43342</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>43347</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>43388</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>43395</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>43410</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>43417</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>43423</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>43430</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>43430</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>43438</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43444</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43444</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43444</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43446</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>43446</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43447</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43453</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43462</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>43462</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>43462</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>43468</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43489</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>43490</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43494</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43494</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43494</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43495</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43518</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43549</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>43556</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>43558</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43565</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>43571</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>43578</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>43584</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>43591</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>43592</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43592</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>43599</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>43602</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>43602</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>43608</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43620</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43628</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43630</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43633</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43635</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43636</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>43648</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43648</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>43650</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>43653</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>43657</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>43658</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>43665</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>43678</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43684</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>43684</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         <v>43686</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>43696</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>43698</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>43699</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>43711</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>43726</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>43733</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>43734</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>43734</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>43735</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5458,7 +5458,7 @@
         <v>43738</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5515,7 +5515,7 @@
         <v>43742</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         <v>43766</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>43774</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5686,7 +5686,7 @@
         <v>43783</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43784</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>43784</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>43788</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>43790</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5971,7 +5971,7 @@
         <v>43790</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
         <v>43794</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6085,7 +6085,7 @@
         <v>43795</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6142,7 +6142,7 @@
         <v>43802</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6199,7 +6199,7 @@
         <v>43816</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>43822</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>43837</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>43839</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         <v>43843</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         <v>43844</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6541,7 +6541,7 @@
         <v>43845</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         <v>43846</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6655,7 +6655,7 @@
         <v>43847</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6712,7 +6712,7 @@
         <v>43864</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>43879</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6826,7 +6826,7 @@
         <v>43879</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6883,7 +6883,7 @@
         <v>43882</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43886</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>43892</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43892</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43895</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43900</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43908</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         <v>43916</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         <v>43920</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7396,7 +7396,7 @@
         <v>43922</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7453,7 +7453,7 @@
         <v>43927</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7510,7 +7510,7 @@
         <v>43928</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         <v>43936</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>43938</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>43944</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7738,7 +7738,7 @@
         <v>43950</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         <v>43958</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7852,7 +7852,7 @@
         <v>43963</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
         <v>43975</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         <v>43978</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>43984</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>43985</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>43986</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>43986</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>43993</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>43993</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>44007</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8427,7 +8427,7 @@
         <v>44013</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8484,7 +8484,7 @@
         <v>44013</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>44025</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>44053</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>44105</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>44113</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         <v>44113</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>44117</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>44123</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8940,7 +8940,7 @@
         <v>44131</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>44131</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>44139</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>44147</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>44162</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>44167</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>44172</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>44182</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>44200</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>44211</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>44218</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44235</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>44242</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>44243</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>44243</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>44251</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44252</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44258</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44263</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44266</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44271</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44298</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44315</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44332</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>44333</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44335</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>44355</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>44357</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>44358</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>44376</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>44378</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>44378</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>44378</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>44389</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44389</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44427</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44439</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44445</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44446</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44447</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44456</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44461</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44461</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44488</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44496</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44510</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44515</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>44516</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>44516</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>44550</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>44568</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>44572</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>44582</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>44603</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>44614</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>44614</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>44628</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>44637</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>44672</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>44672</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>44726</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>44726</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>44727</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>44727</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>44740</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>44773</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>44795</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>44805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>44809</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>44809</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>44817</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>44821</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>44826</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>44826</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>44830</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>44831</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>44852</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>44852</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>44855</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>44864</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>44868</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>44896</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13639,7 +13639,7 @@
         <v>44896</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13696,7 +13696,7 @@
         <v>44896</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>44903</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>44903</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13877,7 +13877,7 @@
         <v>44916</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13934,7 +13934,7 @@
         <v>44949</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13991,7 +13991,7 @@
         <v>44953</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14048,7 +14048,7 @@
         <v>44953</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14105,7 +14105,7 @@
         <v>44953</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14162,7 +14162,7 @@
         <v>44953</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14219,7 +14219,7 @@
         <v>44956</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14276,7 +14276,7 @@
         <v>44959</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14333,7 +14333,7 @@
         <v>44964</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>44974</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14447,7 +14447,7 @@
         <v>44977</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14504,7 +14504,7 @@
         <v>44979</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>44984</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44984</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44991</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14732,7 +14732,7 @@
         <v>45000</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>45006</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14846,7 +14846,7 @@
         <v>45010</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>45011</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14960,7 +14960,7 @@
         <v>45015</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15017,7 +15017,7 @@
         <v>45015</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15074,7 +15074,7 @@
         <v>45035</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>45048</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15188,7 +15188,7 @@
         <v>45051</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15245,7 +15245,7 @@
         <v>45051</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15302,7 +15302,7 @@
         <v>45051</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15359,7 +15359,7 @@
         <v>45075</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15416,7 +15416,7 @@
         <v>45076</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15473,7 +15473,7 @@
         <v>45091</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15530,7 +15530,7 @@
         <v>45092</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15587,7 +15587,7 @@
         <v>45097</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15644,7 +15644,7 @@
         <v>45105</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15701,7 +15701,7 @@
         <v>45118</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15758,7 +15758,7 @@
         <v>45126</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15815,7 +15815,7 @@
         <v>45149</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15872,7 +15872,7 @@
         <v>45168</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>

--- a/Översikt ALINGSÅS.xlsx
+++ b/Översikt ALINGSÅS.xlsx
@@ -572,7 +572,7 @@
         <v>44358</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44855</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>43738</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43770</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
         <v>44803</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43417</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43986</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44244</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44848</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45092</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>43334</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>43342</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>43347</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>43388</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>43395</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>43410</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>43417</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>43423</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>43430</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>43430</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>43438</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43444</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43444</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43444</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43446</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>43446</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43447</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43453</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43462</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>43462</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>43462</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>43468</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43489</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>43490</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43494</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43494</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43494</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43495</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43518</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43549</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>43556</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>43558</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43565</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>43571</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>43578</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>43584</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>43591</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>43592</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43592</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>43599</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>43602</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>43602</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>43608</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43620</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43628</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43630</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43633</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43635</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43636</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>43648</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43648</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>43650</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>43653</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>43657</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>43658</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>43665</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>43678</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43684</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>43684</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         <v>43686</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>43696</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>43698</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>43699</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>43711</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>43726</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>43733</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>43734</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>43734</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>43735</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5458,7 +5458,7 @@
         <v>43738</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5515,7 +5515,7 @@
         <v>43742</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         <v>43766</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>43774</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5686,7 +5686,7 @@
         <v>43783</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43784</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>43784</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>43788</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>43790</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5971,7 +5971,7 @@
         <v>43790</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
         <v>43794</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6085,7 +6085,7 @@
         <v>43795</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6142,7 +6142,7 @@
         <v>43802</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6199,7 +6199,7 @@
         <v>43816</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>43822</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>43837</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>43839</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         <v>43843</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         <v>43844</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6541,7 +6541,7 @@
         <v>43845</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         <v>43846</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6655,7 +6655,7 @@
         <v>43847</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6712,7 +6712,7 @@
         <v>43864</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>43879</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6826,7 +6826,7 @@
         <v>43879</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6883,7 +6883,7 @@
         <v>43882</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43886</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>43892</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43892</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43895</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43900</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43908</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         <v>43916</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         <v>43920</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7396,7 +7396,7 @@
         <v>43922</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7453,7 +7453,7 @@
         <v>43927</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7510,7 +7510,7 @@
         <v>43928</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         <v>43936</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>43938</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>43944</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7738,7 +7738,7 @@
         <v>43950</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         <v>43958</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7852,7 +7852,7 @@
         <v>43963</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
         <v>43975</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         <v>43978</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>43984</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>43985</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>43986</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>43986</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>43993</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>43993</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>44007</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8427,7 +8427,7 @@
         <v>44013</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8484,7 +8484,7 @@
         <v>44013</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>44025</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>44053</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>44105</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>44113</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         <v>44113</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>44117</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>44123</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8940,7 +8940,7 @@
         <v>44131</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>44131</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>44139</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>44147</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>44162</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>44167</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>44172</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>44182</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>44200</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>44211</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>44218</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44235</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>44242</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>44243</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>44243</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>44251</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44252</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44258</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44263</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44266</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44271</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44298</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44315</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44332</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>44333</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44335</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>44355</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>44357</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>44358</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>44376</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>44378</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>44378</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>44378</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>44389</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44389</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44427</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44439</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44445</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44446</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44447</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44456</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44461</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44461</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44488</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44496</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44510</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44515</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>44516</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>44516</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>44550</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>44568</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>44572</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>44582</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>44603</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>44614</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>44614</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>44628</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>44637</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>44672</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>44672</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>44726</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>44726</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>44727</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>44727</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>44740</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>44773</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>44795</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>44805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>44809</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>44809</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>44817</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>44821</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>44826</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>44826</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>44830</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>44831</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>44852</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>44852</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>44855</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>44864</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>44868</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>44896</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13639,7 +13639,7 @@
         <v>44896</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13696,7 +13696,7 @@
         <v>44896</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>44903</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>44903</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13877,7 +13877,7 @@
         <v>44916</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13934,7 +13934,7 @@
         <v>44949</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13991,7 +13991,7 @@
         <v>44953</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14048,7 +14048,7 @@
         <v>44953</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14105,7 +14105,7 @@
         <v>44953</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14162,7 +14162,7 @@
         <v>44953</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14219,7 +14219,7 @@
         <v>44956</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14276,7 +14276,7 @@
         <v>44959</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14333,7 +14333,7 @@
         <v>44964</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>44974</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14447,7 +14447,7 @@
         <v>44977</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14504,7 +14504,7 @@
         <v>44979</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>44984</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44984</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44991</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14732,7 +14732,7 @@
         <v>45000</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>45006</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14846,7 +14846,7 @@
         <v>45010</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>45011</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14960,7 +14960,7 @@
         <v>45015</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15017,7 +15017,7 @@
         <v>45015</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15074,7 +15074,7 @@
         <v>45035</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>45048</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15188,7 +15188,7 @@
         <v>45051</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15245,7 +15245,7 @@
         <v>45051</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15302,7 +15302,7 @@
         <v>45051</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15359,7 +15359,7 @@
         <v>45075</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15416,7 +15416,7 @@
         <v>45076</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15473,7 +15473,7 @@
         <v>45091</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15530,7 +15530,7 @@
         <v>45092</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15587,7 +15587,7 @@
         <v>45097</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15644,7 +15644,7 @@
         <v>45105</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15701,7 +15701,7 @@
         <v>45118</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15758,7 +15758,7 @@
         <v>45126</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15815,7 +15815,7 @@
         <v>45149</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15872,7 +15872,7 @@
         <v>45168</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>

--- a/Översikt ALINGSÅS.xlsx
+++ b/Översikt ALINGSÅS.xlsx
@@ -572,7 +572,7 @@
         <v>44358</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,27 +629,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/artfynd/A 29057-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/artfynd/A 29057-2021.xlsx", "A 29057-2021")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/kartor/A 29057-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/kartor/A 29057-2021.png", "A 29057-2021")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/klagomål/A 29057-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/klagomål/A 29057-2021.docx", "A 29057-2021")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/klagomålsmail/A 29057-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/klagomålsmail/A 29057-2021.docx", "A 29057-2021")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/tillsyn/A 29057-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/tillsyn/A 29057-2021.docx", "A 29057-2021")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/tillsynsmail/A 29057-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/tillsynsmail/A 29057-2021.docx", "A 29057-2021")</f>
         <v/>
       </c>
     </row>
@@ -663,7 +663,7 @@
         <v>44855</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -716,27 +716,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/artfynd/A 47947-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/artfynd/A 47947-2022.xlsx", "A 47947-2022")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/kartor/A 47947-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/kartor/A 47947-2022.png", "A 47947-2022")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/klagomål/A 47947-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/klagomål/A 47947-2022.docx", "A 47947-2022")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/klagomålsmail/A 47947-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/klagomålsmail/A 47947-2022.docx", "A 47947-2022")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/tillsyn/A 47947-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/tillsyn/A 47947-2022.docx", "A 47947-2022")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/tillsynsmail/A 47947-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/tillsynsmail/A 47947-2022.docx", "A 47947-2022")</f>
         <v/>
       </c>
     </row>
@@ -750,7 +750,7 @@
         <v>43738</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -802,27 +802,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/artfynd/A 50910-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/artfynd/A 50910-2019.xlsx", "A 50910-2019")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/kartor/A 50910-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/kartor/A 50910-2019.png", "A 50910-2019")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/klagomål/A 50910-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/klagomål/A 50910-2019.docx", "A 50910-2019")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/klagomålsmail/A 50910-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/klagomålsmail/A 50910-2019.docx", "A 50910-2019")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/tillsyn/A 50910-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/tillsyn/A 50910-2019.docx", "A 50910-2019")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/tillsynsmail/A 50910-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/tillsynsmail/A 50910-2019.docx", "A 50910-2019")</f>
         <v/>
       </c>
     </row>
@@ -836,7 +836,7 @@
         <v>43770</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -888,27 +888,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/artfynd/A 58206-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/artfynd/A 58206-2019.xlsx", "A 58206-2019")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/kartor/A 58206-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/kartor/A 58206-2019.png", "A 58206-2019")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/klagomål/A 58206-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/klagomål/A 58206-2019.docx", "A 58206-2019")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/klagomålsmail/A 58206-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/klagomålsmail/A 58206-2019.docx", "A 58206-2019")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/tillsyn/A 58206-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/tillsyn/A 58206-2019.docx", "A 58206-2019")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/tillsynsmail/A 58206-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/tillsynsmail/A 58206-2019.docx", "A 58206-2019")</f>
         <v/>
       </c>
     </row>
@@ -922,7 +922,7 @@
         <v>44803</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -974,27 +974,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/artfynd/A 36195-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/artfynd/A 36195-2022.xlsx", "A 36195-2022")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/kartor/A 36195-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/kartor/A 36195-2022.png", "A 36195-2022")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/klagomål/A 36195-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/klagomål/A 36195-2022.docx", "A 36195-2022")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/klagomålsmail/A 36195-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/klagomålsmail/A 36195-2022.docx", "A 36195-2022")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/tillsyn/A 36195-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/tillsyn/A 36195-2022.docx", "A 36195-2022")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/tillsynsmail/A 36195-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/tillsynsmail/A 36195-2022.docx", "A 36195-2022")</f>
         <v/>
       </c>
     </row>
@@ -1008,7 +1008,7 @@
         <v>43417</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1059,27 +1059,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/artfynd/A 59081-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/artfynd/A 59081-2018.xlsx", "A 59081-2018")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/kartor/A 59081-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/kartor/A 59081-2018.png", "A 59081-2018")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/klagomål/A 59081-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/klagomål/A 59081-2018.docx", "A 59081-2018")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/klagomålsmail/A 59081-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/klagomålsmail/A 59081-2018.docx", "A 59081-2018")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/tillsyn/A 59081-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/tillsyn/A 59081-2018.docx", "A 59081-2018")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/tillsynsmail/A 59081-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/tillsynsmail/A 59081-2018.docx", "A 59081-2018")</f>
         <v/>
       </c>
     </row>
@@ -1093,7 +1093,7 @@
         <v>43986</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1144,27 +1144,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/artfynd/A 26240-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/artfynd/A 26240-2020.xlsx", "A 26240-2020")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/kartor/A 26240-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/kartor/A 26240-2020.png", "A 26240-2020")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/klagomål/A 26240-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/klagomål/A 26240-2020.docx", "A 26240-2020")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/klagomålsmail/A 26240-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/klagomålsmail/A 26240-2020.docx", "A 26240-2020")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/tillsyn/A 26240-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/tillsyn/A 26240-2020.docx", "A 26240-2020")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/tillsynsmail/A 26240-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/tillsynsmail/A 26240-2020.docx", "A 26240-2020")</f>
         <v/>
       </c>
     </row>
@@ -1178,7 +1178,7 @@
         <v>44244</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1229,27 +1229,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/artfynd/A 8209-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/artfynd/A 8209-2021.xlsx", "A 8209-2021")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/kartor/A 8209-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/kartor/A 8209-2021.png", "A 8209-2021")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/klagomål/A 8209-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/klagomål/A 8209-2021.docx", "A 8209-2021")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/klagomålsmail/A 8209-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/klagomålsmail/A 8209-2021.docx", "A 8209-2021")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/tillsyn/A 8209-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/tillsyn/A 8209-2021.docx", "A 8209-2021")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/tillsynsmail/A 8209-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/tillsynsmail/A 8209-2021.docx", "A 8209-2021")</f>
         <v/>
       </c>
     </row>
@@ -1263,7 +1263,7 @@
         <v>44848</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1314,27 +1314,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/artfynd/A 46768-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/artfynd/A 46768-2022.xlsx", "A 46768-2022")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/kartor/A 46768-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/kartor/A 46768-2022.png", "A 46768-2022")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/klagomål/A 46768-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/klagomål/A 46768-2022.docx", "A 46768-2022")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/klagomålsmail/A 46768-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/klagomålsmail/A 46768-2022.docx", "A 46768-2022")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/tillsyn/A 46768-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/tillsyn/A 46768-2022.docx", "A 46768-2022")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/tillsynsmail/A 46768-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/tillsynsmail/A 46768-2022.docx", "A 46768-2022")</f>
         <v/>
       </c>
     </row>
@@ -1348,7 +1348,7 @@
         <v>45092</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1399,27 +1399,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/artfynd/A 26384-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/artfynd/A 26384-2023.xlsx", "A 26384-2023")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/kartor/A 26384-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/kartor/A 26384-2023.png", "A 26384-2023")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/klagomål/A 26384-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/klagomål/A 26384-2023.docx", "A 26384-2023")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/klagomålsmail/A 26384-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/klagomålsmail/A 26384-2023.docx", "A 26384-2023")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/tillsyn/A 26384-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/tillsyn/A 26384-2023.docx", "A 26384-2023")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/tillsynsmail/A 26384-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALINGSAS/tillsynsmail/A 26384-2023.docx", "A 26384-2023")</f>
         <v/>
       </c>
     </row>
@@ -1433,7 +1433,7 @@
         <v>43334</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>43342</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>43347</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>43388</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>43395</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>43410</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>43417</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>43423</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>43430</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>43430</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>43438</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43444</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43444</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43444</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43446</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>43446</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43447</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43453</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43462</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>43462</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>43462</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>43468</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43489</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>43490</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43494</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43494</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43494</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43495</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43518</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43549</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>43556</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>43558</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43565</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>43571</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>43578</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>43584</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>43591</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>43592</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43592</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>43599</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>43602</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>43602</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>43608</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43620</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43628</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43630</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43633</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43635</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43636</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>43648</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43648</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>43650</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>43653</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>43657</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>43658</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>43665</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>43678</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43684</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>43684</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         <v>43686</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>43696</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>43698</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>43699</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>43711</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>43726</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>43733</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>43734</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>43734</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>43735</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5458,7 +5458,7 @@
         <v>43738</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5515,7 +5515,7 @@
         <v>43742</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         <v>43766</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>43774</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5686,7 +5686,7 @@
         <v>43783</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43784</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>43784</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>43788</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>43790</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5971,7 +5971,7 @@
         <v>43790</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
         <v>43794</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6085,7 +6085,7 @@
         <v>43795</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6142,7 +6142,7 @@
         <v>43802</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6199,7 +6199,7 @@
         <v>43816</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>43822</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>43837</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>43839</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         <v>43843</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         <v>43844</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6541,7 +6541,7 @@
         <v>43845</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         <v>43846</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6655,7 +6655,7 @@
         <v>43847</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6712,7 +6712,7 @@
         <v>43864</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>43879</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6826,7 +6826,7 @@
         <v>43879</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6883,7 +6883,7 @@
         <v>43882</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43886</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>43892</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43892</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43895</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43900</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43908</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         <v>43916</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         <v>43920</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7396,7 +7396,7 @@
         <v>43922</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7453,7 +7453,7 @@
         <v>43927</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7510,7 +7510,7 @@
         <v>43928</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         <v>43936</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>43938</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>43944</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7738,7 +7738,7 @@
         <v>43950</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         <v>43958</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7852,7 +7852,7 @@
         <v>43963</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
         <v>43975</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         <v>43978</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>43984</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>43985</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>43986</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>43986</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>43993</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>43993</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>44007</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8427,7 +8427,7 @@
         <v>44013</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8484,7 +8484,7 @@
         <v>44013</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>44025</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>44053</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>44105</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>44113</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         <v>44113</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>44117</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>44123</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8940,7 +8940,7 @@
         <v>44131</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>44131</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>44139</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>44147</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>44162</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>44167</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>44172</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>44182</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>44200</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>44211</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>44218</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44235</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>44242</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>44243</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>44243</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>44251</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44252</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44258</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44263</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44266</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44271</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44298</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44315</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44332</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>44333</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44335</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>44355</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>44357</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>44358</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>44376</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>44378</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>44378</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>44378</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>44389</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44389</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44427</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44439</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44445</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44446</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44447</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44456</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44461</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44461</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44488</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44496</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44510</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44515</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>44516</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>44516</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>44550</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>44568</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>44572</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>44582</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>44603</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>44614</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>44614</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>44628</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>44637</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>44672</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>44672</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>44726</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>44726</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>44727</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>44727</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>44740</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>44773</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>44795</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>44805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>44809</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>44809</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>44817</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>44821</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>44826</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>44826</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>44830</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>44831</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>44852</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>44852</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>44855</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>44864</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>44868</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>44896</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13639,7 +13639,7 @@
         <v>44896</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13696,7 +13696,7 @@
         <v>44896</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>44903</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>44903</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13877,7 +13877,7 @@
         <v>44916</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13934,7 +13934,7 @@
         <v>44949</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13991,7 +13991,7 @@
         <v>44953</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14048,7 +14048,7 @@
         <v>44953</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14105,7 +14105,7 @@
         <v>44953</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14162,7 +14162,7 @@
         <v>44953</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14219,7 +14219,7 @@
         <v>44956</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14276,7 +14276,7 @@
         <v>44959</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14333,7 +14333,7 @@
         <v>44964</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>44974</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14447,7 +14447,7 @@
         <v>44977</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14504,7 +14504,7 @@
         <v>44979</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>44984</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44984</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44991</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14732,7 +14732,7 @@
         <v>45000</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>45006</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14846,7 +14846,7 @@
         <v>45010</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>45011</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14960,7 +14960,7 @@
         <v>45015</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15017,7 +15017,7 @@
         <v>45015</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15074,7 +15074,7 @@
         <v>45035</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>45048</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15188,7 +15188,7 @@
         <v>45051</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15245,7 +15245,7 @@
         <v>45051</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15302,7 +15302,7 @@
         <v>45051</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15359,7 +15359,7 @@
         <v>45075</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15416,7 +15416,7 @@
         <v>45076</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15473,7 +15473,7 @@
         <v>45091</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15530,7 +15530,7 @@
         <v>45092</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15587,7 +15587,7 @@
         <v>45097</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15644,7 +15644,7 @@
         <v>45105</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15701,7 +15701,7 @@
         <v>45118</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15758,7 +15758,7 @@
         <v>45126</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15815,7 +15815,7 @@
         <v>45149</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15872,7 +15872,7 @@
         <v>45168</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>

--- a/Översikt ALINGSÅS.xlsx
+++ b/Översikt ALINGSÅS.xlsx
@@ -572,7 +572,7 @@
         <v>44358</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44855</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>43738</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43770</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
         <v>44803</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43417</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43986</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44244</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44848</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45092</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>43334</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>43342</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>43347</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>43388</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>43395</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>43410</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>43417</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>43423</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>43430</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>43430</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>43438</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43444</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43444</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43444</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43446</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>43446</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43447</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43453</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43462</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>43462</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>43462</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>43468</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43489</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>43490</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43494</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43494</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43494</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43495</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43518</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43549</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>43556</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>43558</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43565</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>43571</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>43578</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>43584</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>43591</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>43592</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43592</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>43599</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>43602</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>43602</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>43608</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43620</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43628</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43630</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43633</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43635</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43636</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>43648</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43648</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>43650</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>43653</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>43657</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>43658</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>43665</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>43678</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43684</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>43684</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         <v>43686</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>43696</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>43698</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>43699</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>43711</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>43726</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>43733</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>43734</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>43734</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>43735</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5458,7 +5458,7 @@
         <v>43738</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5515,7 +5515,7 @@
         <v>43742</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         <v>43766</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>43774</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5686,7 +5686,7 @@
         <v>43783</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43784</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>43784</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>43788</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>43790</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5971,7 +5971,7 @@
         <v>43790</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
         <v>43794</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6085,7 +6085,7 @@
         <v>43795</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6142,7 +6142,7 @@
         <v>43802</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6199,7 +6199,7 @@
         <v>43816</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>43822</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>43837</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>43839</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         <v>43843</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         <v>43844</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6541,7 +6541,7 @@
         <v>43845</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         <v>43846</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6655,7 +6655,7 @@
         <v>43847</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6712,7 +6712,7 @@
         <v>43864</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>43879</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6826,7 +6826,7 @@
         <v>43879</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6883,7 +6883,7 @@
         <v>43882</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43886</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>43892</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43892</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43895</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43900</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43908</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         <v>43916</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         <v>43920</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7396,7 +7396,7 @@
         <v>43922</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7453,7 +7453,7 @@
         <v>43927</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7510,7 +7510,7 @@
         <v>43928</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         <v>43936</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>43938</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>43944</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7738,7 +7738,7 @@
         <v>43950</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         <v>43958</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7852,7 +7852,7 @@
         <v>43963</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
         <v>43975</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         <v>43978</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>43984</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>43985</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>43986</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>43986</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>43993</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>43993</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>44007</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8427,7 +8427,7 @@
         <v>44013</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8484,7 +8484,7 @@
         <v>44013</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>44025</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>44053</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>44105</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>44113</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         <v>44113</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>44117</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>44123</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8940,7 +8940,7 @@
         <v>44131</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>44131</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>44139</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>44147</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>44162</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>44167</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>44172</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>44182</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>44200</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>44211</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>44218</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44235</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>44242</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>44243</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>44243</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>44251</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44252</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44258</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44263</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44266</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44271</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44298</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44315</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44332</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>44333</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44335</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>44355</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>44357</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>44358</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>44376</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>44378</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>44378</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>44378</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>44389</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44389</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44427</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44439</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44445</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44446</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44447</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44456</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44461</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44461</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44488</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44496</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44510</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44515</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>44516</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>44516</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>44550</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>44568</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>44572</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>44582</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>44603</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>44614</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>44614</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>44628</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>44637</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>44672</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>44672</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>44726</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>44726</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>44727</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>44727</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>44740</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>44773</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>44795</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>44805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>44809</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>44809</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>44817</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>44821</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>44826</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>44826</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>44830</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>44831</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>44852</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>44852</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>44855</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>44864</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>44868</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>44896</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13639,7 +13639,7 @@
         <v>44896</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13696,7 +13696,7 @@
         <v>44896</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>44903</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>44903</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13877,7 +13877,7 @@
         <v>44916</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13934,7 +13934,7 @@
         <v>44949</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13991,7 +13991,7 @@
         <v>44953</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14048,7 +14048,7 @@
         <v>44953</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14105,7 +14105,7 @@
         <v>44953</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14162,7 +14162,7 @@
         <v>44953</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14219,7 +14219,7 @@
         <v>44956</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14276,7 +14276,7 @@
         <v>44959</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14333,7 +14333,7 @@
         <v>44964</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>44974</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14447,7 +14447,7 @@
         <v>44977</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14504,7 +14504,7 @@
         <v>44979</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>44984</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44984</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44991</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14732,7 +14732,7 @@
         <v>45000</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>45006</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14846,7 +14846,7 @@
         <v>45010</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>45011</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14960,7 +14960,7 @@
         <v>45015</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15017,7 +15017,7 @@
         <v>45015</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15074,7 +15074,7 @@
         <v>45035</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>45048</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15188,7 +15188,7 @@
         <v>45051</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15245,7 +15245,7 @@
         <v>45051</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15302,7 +15302,7 @@
         <v>45051</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15359,7 +15359,7 @@
         <v>45075</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15416,7 +15416,7 @@
         <v>45076</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15473,7 +15473,7 @@
         <v>45091</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15530,7 +15530,7 @@
         <v>45092</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15587,7 +15587,7 @@
         <v>45097</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15644,7 +15644,7 @@
         <v>45105</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15701,7 +15701,7 @@
         <v>45118</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15758,7 +15758,7 @@
         <v>45126</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15815,7 +15815,7 @@
         <v>45149</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15872,7 +15872,7 @@
         <v>45168</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>

--- a/Översikt ALINGSÅS.xlsx
+++ b/Översikt ALINGSÅS.xlsx
@@ -572,7 +572,7 @@
         <v>44358</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44855</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>43738</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43770</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
         <v>44803</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43417</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43986</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44244</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44848</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45092</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>43334</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>43342</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>43347</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>43388</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>43395</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>43410</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>43417</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>43423</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>43430</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>43430</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>43438</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43444</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43444</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43444</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43446</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>43446</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43447</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43453</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43462</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>43462</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>43462</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>43468</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43489</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>43490</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43494</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43494</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43494</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43495</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43518</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43549</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>43556</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>43558</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43565</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>43571</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>43578</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>43584</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>43591</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>43592</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43592</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>43599</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>43602</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>43602</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>43608</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43620</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43628</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43630</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43633</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43635</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43636</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>43648</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43648</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>43650</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>43653</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>43657</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>43658</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>43665</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>43678</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43684</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>43684</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         <v>43686</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>43696</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>43698</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>43699</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>43711</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>43726</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>43733</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>43734</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>43734</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>43735</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5458,7 +5458,7 @@
         <v>43738</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5515,7 +5515,7 @@
         <v>43742</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         <v>43766</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>43774</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5686,7 +5686,7 @@
         <v>43783</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43784</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>43784</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>43788</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>43790</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5971,7 +5971,7 @@
         <v>43790</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
         <v>43794</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6085,7 +6085,7 @@
         <v>43795</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6142,7 +6142,7 @@
         <v>43802</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6199,7 +6199,7 @@
         <v>43816</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>43822</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>43837</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>43839</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         <v>43843</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         <v>43844</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6541,7 +6541,7 @@
         <v>43845</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         <v>43846</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6655,7 +6655,7 @@
         <v>43847</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6712,7 +6712,7 @@
         <v>43864</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>43879</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6826,7 +6826,7 @@
         <v>43879</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6883,7 +6883,7 @@
         <v>43882</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43886</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>43892</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43892</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43895</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43900</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43908</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         <v>43916</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         <v>43920</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7396,7 +7396,7 @@
         <v>43922</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7453,7 +7453,7 @@
         <v>43927</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7510,7 +7510,7 @@
         <v>43928</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         <v>43936</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>43938</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>43944</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7738,7 +7738,7 @@
         <v>43950</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         <v>43958</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7852,7 +7852,7 @@
         <v>43963</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
         <v>43975</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         <v>43978</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>43984</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>43985</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>43986</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>43986</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>43993</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>43993</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>44007</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8427,7 +8427,7 @@
         <v>44013</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8484,7 +8484,7 @@
         <v>44013</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>44025</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>44053</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>44105</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>44113</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         <v>44113</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>44117</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>44123</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8940,7 +8940,7 @@
         <v>44131</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>44131</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>44139</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>44147</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>44162</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>44167</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>44172</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>44182</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>44200</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>44211</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>44218</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44235</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>44242</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>44243</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>44243</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>44251</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44252</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44258</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44263</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44266</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44271</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44298</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44315</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44332</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>44333</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44335</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>44355</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>44357</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>44358</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>44376</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>44378</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>44378</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>44378</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>44389</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44389</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44427</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44439</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44445</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44446</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44447</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44456</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44461</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44461</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44488</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44496</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44510</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44515</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>44516</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>44516</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>44550</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>44568</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>44572</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>44582</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>44603</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>44614</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>44614</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>44628</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>44637</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>44672</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>44672</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>44726</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>44726</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>44727</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>44727</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>44740</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>44773</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>44795</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>44805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>44809</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>44809</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>44817</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>44821</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>44826</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>44826</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>44830</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>44831</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>44852</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>44852</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>44855</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>44864</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>44868</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>44896</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13639,7 +13639,7 @@
         <v>44896</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13696,7 +13696,7 @@
         <v>44896</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>44903</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>44903</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13877,7 +13877,7 @@
         <v>44916</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13934,7 +13934,7 @@
         <v>44949</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13991,7 +13991,7 @@
         <v>44953</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14048,7 +14048,7 @@
         <v>44953</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14105,7 +14105,7 @@
         <v>44953</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14162,7 +14162,7 @@
         <v>44953</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14219,7 +14219,7 @@
         <v>44956</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14276,7 +14276,7 @@
         <v>44959</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14333,7 +14333,7 @@
         <v>44964</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>44974</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14447,7 +14447,7 @@
         <v>44977</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14504,7 +14504,7 @@
         <v>44979</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>44984</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44984</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44991</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14732,7 +14732,7 @@
         <v>45000</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>45006</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14846,7 +14846,7 @@
         <v>45010</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>45011</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14960,7 +14960,7 @@
         <v>45015</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15017,7 +15017,7 @@
         <v>45015</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15074,7 +15074,7 @@
         <v>45035</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>45048</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15188,7 +15188,7 @@
         <v>45051</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15245,7 +15245,7 @@
         <v>45051</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15302,7 +15302,7 @@
         <v>45051</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15359,7 +15359,7 @@
         <v>45075</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15416,7 +15416,7 @@
         <v>45076</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15473,7 +15473,7 @@
         <v>45091</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15530,7 +15530,7 @@
         <v>45092</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15587,7 +15587,7 @@
         <v>45097</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15644,7 +15644,7 @@
         <v>45105</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15701,7 +15701,7 @@
         <v>45118</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15758,7 +15758,7 @@
         <v>45126</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15815,7 +15815,7 @@
         <v>45149</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15872,7 +15872,7 @@
         <v>45168</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>

--- a/Översikt ALINGSÅS.xlsx
+++ b/Översikt ALINGSÅS.xlsx
@@ -572,7 +572,7 @@
         <v>44358</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44855</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>43738</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43770</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
         <v>44803</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43417</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43986</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44244</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44848</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45092</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>43334</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>43342</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>43347</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>43388</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>43395</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>43410</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>43417</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>43423</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>43430</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>43430</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>43438</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43444</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43444</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43444</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43446</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>43446</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43447</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43453</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43462</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>43462</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>43462</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>43468</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43489</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>43490</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43494</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43494</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43494</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43495</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43518</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43549</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>43556</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>43558</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43565</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>43571</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>43578</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>43584</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>43591</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>43592</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43592</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>43599</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>43602</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>43602</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>43608</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43620</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43628</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43630</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43633</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43635</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43636</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>43648</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43648</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>43650</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>43653</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>43657</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>43658</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>43665</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>43678</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43684</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>43684</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         <v>43686</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>43696</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>43698</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>43699</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>43711</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>43726</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>43733</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>43734</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>43734</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>43735</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5458,7 +5458,7 @@
         <v>43738</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5515,7 +5515,7 @@
         <v>43742</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         <v>43766</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>43774</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5686,7 +5686,7 @@
         <v>43783</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43784</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>43784</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>43788</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>43790</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5971,7 +5971,7 @@
         <v>43790</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
         <v>43794</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6085,7 +6085,7 @@
         <v>43795</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6142,7 +6142,7 @@
         <v>43802</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6199,7 +6199,7 @@
         <v>43816</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>43822</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>43837</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>43839</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         <v>43843</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         <v>43844</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6541,7 +6541,7 @@
         <v>43845</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         <v>43846</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6655,7 +6655,7 @@
         <v>43847</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6712,7 +6712,7 @@
         <v>43864</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>43879</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6826,7 +6826,7 @@
         <v>43879</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6883,7 +6883,7 @@
         <v>43882</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43886</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>43892</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43892</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43895</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43900</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43908</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         <v>43916</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         <v>43920</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7396,7 +7396,7 @@
         <v>43922</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7453,7 +7453,7 @@
         <v>43927</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7510,7 +7510,7 @@
         <v>43928</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         <v>43936</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>43938</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>43944</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7738,7 +7738,7 @@
         <v>43950</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         <v>43958</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7852,7 +7852,7 @@
         <v>43963</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
         <v>43975</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         <v>43978</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>43984</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>43985</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>43986</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>43986</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>43993</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>43993</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>44007</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8427,7 +8427,7 @@
         <v>44013</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8484,7 +8484,7 @@
         <v>44013</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>44025</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>44053</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>44105</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>44113</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         <v>44113</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>44117</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>44123</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8940,7 +8940,7 @@
         <v>44131</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>44131</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>44139</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>44147</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>44162</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>44167</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>44172</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>44182</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>44200</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>44211</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>44218</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44235</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>44242</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>44243</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>44243</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>44251</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44252</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44258</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44263</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44266</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44271</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44298</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44315</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44332</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>44333</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44335</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>44355</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>44357</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>44358</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>44376</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>44378</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>44378</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>44378</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>44389</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44389</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44427</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44439</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44445</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44446</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44447</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44456</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44461</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44461</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44488</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44496</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44510</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44515</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>44516</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>44516</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>44550</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>44568</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>44572</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>44582</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>44603</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>44614</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>44614</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>44628</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>44637</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>44672</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>44672</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>44726</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>44726</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>44727</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>44727</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>44740</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>44773</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>44795</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>44805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>44809</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>44809</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>44817</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>44821</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>44826</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>44826</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>44830</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>44831</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>44852</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>44852</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>44855</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>44864</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>44868</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>44896</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13639,7 +13639,7 @@
         <v>44896</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13696,7 +13696,7 @@
         <v>44896</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>44903</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>44903</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13877,7 +13877,7 @@
         <v>44916</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13934,7 +13934,7 @@
         <v>44949</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13991,7 +13991,7 @@
         <v>44953</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14048,7 +14048,7 @@
         <v>44953</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14105,7 +14105,7 @@
         <v>44953</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14162,7 +14162,7 @@
         <v>44953</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14219,7 +14219,7 @@
         <v>44956</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14276,7 +14276,7 @@
         <v>44959</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14333,7 +14333,7 @@
         <v>44964</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>44974</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14447,7 +14447,7 @@
         <v>44977</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14504,7 +14504,7 @@
         <v>44979</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>44984</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44984</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44991</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14732,7 +14732,7 @@
         <v>45000</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>45006</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14846,7 +14846,7 @@
         <v>45010</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>45011</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14960,7 +14960,7 @@
         <v>45015</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15017,7 +15017,7 @@
         <v>45015</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15074,7 +15074,7 @@
         <v>45035</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>45048</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15188,7 +15188,7 @@
         <v>45051</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15245,7 +15245,7 @@
         <v>45051</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15302,7 +15302,7 @@
         <v>45051</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15359,7 +15359,7 @@
         <v>45075</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15416,7 +15416,7 @@
         <v>45076</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15473,7 +15473,7 @@
         <v>45091</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15530,7 +15530,7 @@
         <v>45092</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15587,7 +15587,7 @@
         <v>45097</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15644,7 +15644,7 @@
         <v>45105</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15701,7 +15701,7 @@
         <v>45118</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15758,7 +15758,7 @@
         <v>45126</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15815,7 +15815,7 @@
         <v>45149</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15872,7 +15872,7 @@
         <v>45168</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>

--- a/Översikt ALINGSÅS.xlsx
+++ b/Översikt ALINGSÅS.xlsx
@@ -572,7 +572,7 @@
         <v>44358</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44855</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>43738</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43770</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
         <v>44803</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43417</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43986</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44244</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44848</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45092</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>43334</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>43342</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>43347</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>43388</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>43395</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>43410</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>43417</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>43423</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>43430</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>43430</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>43438</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43444</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43444</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43444</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43446</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>43446</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43447</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43453</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43462</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>43462</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>43462</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>43468</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43489</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>43490</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43494</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43494</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43494</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43495</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43518</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43549</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>43556</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>43558</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43565</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>43571</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>43578</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>43584</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>43591</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>43592</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43592</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>43599</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>43602</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>43602</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>43608</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43620</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43628</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43630</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43633</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43635</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43636</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>43648</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43648</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>43650</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>43653</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>43657</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>43658</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>43665</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>43678</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43684</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>43684</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         <v>43686</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>43696</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>43698</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>43699</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>43711</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>43726</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>43733</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>43734</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>43734</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>43735</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5458,7 +5458,7 @@
         <v>43738</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5515,7 +5515,7 @@
         <v>43742</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         <v>43766</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>43774</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5686,7 +5686,7 @@
         <v>43783</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43784</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>43784</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>43788</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>43790</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5971,7 +5971,7 @@
         <v>43790</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
         <v>43794</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6085,7 +6085,7 @@
         <v>43795</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6142,7 +6142,7 @@
         <v>43802</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6199,7 +6199,7 @@
         <v>43816</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>43822</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>43837</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>43839</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         <v>43843</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         <v>43844</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6541,7 +6541,7 @@
         <v>43845</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         <v>43846</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6655,7 +6655,7 @@
         <v>43847</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6712,7 +6712,7 @@
         <v>43864</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>43879</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6826,7 +6826,7 @@
         <v>43879</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6883,7 +6883,7 @@
         <v>43882</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43886</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>43892</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43892</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43895</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43900</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43908</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         <v>43916</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         <v>43920</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7396,7 +7396,7 @@
         <v>43922</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7453,7 +7453,7 @@
         <v>43927</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7510,7 +7510,7 @@
         <v>43928</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         <v>43936</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>43938</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>43944</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7738,7 +7738,7 @@
         <v>43950</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         <v>43958</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7852,7 +7852,7 @@
         <v>43963</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
         <v>43975</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         <v>43978</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>43984</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>43985</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>43986</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>43986</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>43993</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>43993</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>44007</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8427,7 +8427,7 @@
         <v>44013</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8484,7 +8484,7 @@
         <v>44013</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>44025</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>44053</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>44105</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>44113</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         <v>44113</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>44117</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>44123</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8940,7 +8940,7 @@
         <v>44131</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>44131</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>44139</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>44147</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>44162</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>44167</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>44172</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>44182</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>44200</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>44211</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>44218</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44235</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>44242</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>44243</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>44243</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>44251</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44252</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44258</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44263</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44266</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44271</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44298</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44315</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44332</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>44333</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44335</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>44355</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>44357</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>44358</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>44376</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>44378</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>44378</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>44378</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>44389</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44389</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44427</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44439</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44445</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44446</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44447</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44456</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44461</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44461</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44488</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44496</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44510</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44515</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>44516</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>44516</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>44550</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>44568</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>44572</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>44582</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>44603</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>44614</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>44614</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>44628</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>44637</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>44672</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>44672</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>44726</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>44726</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>44727</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>44727</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>44740</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>44773</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>44795</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>44805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>44809</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>44809</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>44817</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>44821</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>44826</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>44826</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>44830</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>44831</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>44852</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>44852</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>44855</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>44864</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>44868</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>44896</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13639,7 +13639,7 @@
         <v>44896</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13696,7 +13696,7 @@
         <v>44896</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>44903</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>44903</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13877,7 +13877,7 @@
         <v>44916</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13934,7 +13934,7 @@
         <v>44949</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13991,7 +13991,7 @@
         <v>44953</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14048,7 +14048,7 @@
         <v>44953</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14105,7 +14105,7 @@
         <v>44953</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14162,7 +14162,7 @@
         <v>44953</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14219,7 +14219,7 @@
         <v>44956</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14276,7 +14276,7 @@
         <v>44959</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14333,7 +14333,7 @@
         <v>44964</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>44974</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14447,7 +14447,7 @@
         <v>44977</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14504,7 +14504,7 @@
         <v>44979</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>44984</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44984</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44991</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14732,7 +14732,7 @@
         <v>45000</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>45006</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14846,7 +14846,7 @@
         <v>45010</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>45011</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14960,7 +14960,7 @@
         <v>45015</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15017,7 +15017,7 @@
         <v>45015</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15074,7 +15074,7 @@
         <v>45035</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>45048</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15188,7 +15188,7 @@
         <v>45051</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15245,7 +15245,7 @@
         <v>45051</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15302,7 +15302,7 @@
         <v>45051</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15359,7 +15359,7 @@
         <v>45075</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15416,7 +15416,7 @@
         <v>45076</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15473,7 +15473,7 @@
         <v>45091</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15530,7 +15530,7 @@
         <v>45092</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15587,7 +15587,7 @@
         <v>45097</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15644,7 +15644,7 @@
         <v>45105</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15701,7 +15701,7 @@
         <v>45118</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15758,7 +15758,7 @@
         <v>45126</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15815,7 +15815,7 @@
         <v>45149</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15872,7 +15872,7 @@
         <v>45168</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>

--- a/Översikt ALINGSÅS.xlsx
+++ b/Översikt ALINGSÅS.xlsx
@@ -572,7 +572,7 @@
         <v>44358</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44855</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>43738</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43770</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
         <v>44803</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43417</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43986</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44244</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44848</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45092</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>43334</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>43342</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>43347</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>43388</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>43395</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>43410</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>43417</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>43423</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>43430</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>43430</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>43438</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43444</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43444</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43444</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43446</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>43446</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43447</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43453</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43462</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>43462</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>43462</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>43468</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43489</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>43490</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43494</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43494</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43494</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43495</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43518</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43549</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>43556</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>43558</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43565</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>43571</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>43578</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>43584</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>43591</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>43592</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43592</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>43599</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>43602</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>43602</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>43608</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43620</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43628</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43630</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43633</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43635</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43636</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>43648</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43648</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>43650</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>43653</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>43657</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>43658</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>43665</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>43678</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43684</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>43684</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         <v>43686</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>43696</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>43698</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>43699</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>43711</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>43726</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>43733</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>43734</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>43734</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>43735</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5458,7 +5458,7 @@
         <v>43738</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5515,7 +5515,7 @@
         <v>43742</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         <v>43766</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>43774</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5686,7 +5686,7 @@
         <v>43783</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43784</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>43784</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>43788</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>43790</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5971,7 +5971,7 @@
         <v>43790</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
         <v>43794</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6085,7 +6085,7 @@
         <v>43795</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6142,7 +6142,7 @@
         <v>43802</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6199,7 +6199,7 @@
         <v>43816</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>43822</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>43837</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>43839</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         <v>43843</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         <v>43844</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6541,7 +6541,7 @@
         <v>43845</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         <v>43846</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6655,7 +6655,7 @@
         <v>43847</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6712,7 +6712,7 @@
         <v>43864</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>43879</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6826,7 +6826,7 @@
         <v>43879</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6883,7 +6883,7 @@
         <v>43882</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43886</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>43892</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43892</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43895</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43900</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43908</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         <v>43916</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         <v>43920</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7396,7 +7396,7 @@
         <v>43922</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7453,7 +7453,7 @@
         <v>43927</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7510,7 +7510,7 @@
         <v>43928</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         <v>43936</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>43938</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>43944</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7738,7 +7738,7 @@
         <v>43950</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         <v>43958</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7852,7 +7852,7 @@
         <v>43963</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
         <v>43975</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         <v>43978</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>43984</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>43985</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>43986</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>43986</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>43993</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>43993</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>44007</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8427,7 +8427,7 @@
         <v>44013</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8484,7 +8484,7 @@
         <v>44013</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>44025</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>44053</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>44105</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>44113</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         <v>44113</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>44117</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>44123</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8940,7 +8940,7 @@
         <v>44131</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>44131</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>44139</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>44147</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>44162</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>44167</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>44172</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>44182</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>44200</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>44211</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>44218</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44235</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>44242</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>44243</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>44243</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>44251</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44252</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44258</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44263</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44266</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44271</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44298</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44315</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44332</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>44333</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44335</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>44355</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>44357</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>44358</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>44376</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>44378</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>44378</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>44378</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>44389</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44389</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44427</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44439</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44445</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44446</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44447</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44456</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44461</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44461</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44488</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44496</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44510</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44515</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>44516</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>44516</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>44550</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>44568</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>44572</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>44582</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>44603</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>44614</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>44614</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>44628</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>44637</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>44672</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>44672</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>44726</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>44726</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>44727</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>44727</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>44740</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>44773</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>44795</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>44805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>44809</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>44809</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>44817</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>44821</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>44826</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>44826</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>44830</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>44831</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>44852</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>44852</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>44855</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>44864</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>44868</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>44896</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13639,7 +13639,7 @@
         <v>44896</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13696,7 +13696,7 @@
         <v>44896</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>44903</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>44903</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13877,7 +13877,7 @@
         <v>44916</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13934,7 +13934,7 @@
         <v>44949</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13991,7 +13991,7 @@
         <v>44953</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14048,7 +14048,7 @@
         <v>44953</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14105,7 +14105,7 @@
         <v>44953</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14162,7 +14162,7 @@
         <v>44953</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14219,7 +14219,7 @@
         <v>44956</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14276,7 +14276,7 @@
         <v>44959</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14333,7 +14333,7 @@
         <v>44964</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>44974</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14447,7 +14447,7 @@
         <v>44977</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14504,7 +14504,7 @@
         <v>44979</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>44984</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44984</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44991</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14732,7 +14732,7 @@
         <v>45000</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>45006</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14846,7 +14846,7 @@
         <v>45010</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>45011</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14960,7 +14960,7 @@
         <v>45015</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15017,7 +15017,7 @@
         <v>45015</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15074,7 +15074,7 @@
         <v>45035</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>45048</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15188,7 +15188,7 @@
         <v>45051</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15245,7 +15245,7 @@
         <v>45051</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15302,7 +15302,7 @@
         <v>45051</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15359,7 +15359,7 @@
         <v>45075</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15416,7 +15416,7 @@
         <v>45076</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15473,7 +15473,7 @@
         <v>45091</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15530,7 +15530,7 @@
         <v>45092</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15587,7 +15587,7 @@
         <v>45097</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15644,7 +15644,7 @@
         <v>45105</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15701,7 +15701,7 @@
         <v>45118</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15758,7 +15758,7 @@
         <v>45126</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15815,7 +15815,7 @@
         <v>45149</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15872,7 +15872,7 @@
         <v>45168</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>

--- a/Översikt ALINGSÅS.xlsx
+++ b/Översikt ALINGSÅS.xlsx
@@ -572,7 +572,7 @@
         <v>44358</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44855</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>43738</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43770</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
         <v>44803</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43417</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43986</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44244</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44848</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45092</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>43334</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>43342</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>43347</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>43388</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>43395</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>43410</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>43417</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>43423</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>43430</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>43430</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>43438</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43444</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43444</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43444</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43446</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>43446</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43447</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43453</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43462</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>43462</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>43462</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>43468</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43489</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>43490</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43494</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43494</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43494</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43495</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43518</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43549</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>43556</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>43558</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43565</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>43571</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>43578</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>43584</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>43591</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>43592</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43592</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>43599</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>43602</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>43602</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>43608</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43620</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43628</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43630</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43633</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43635</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43636</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>43648</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43648</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>43650</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>43653</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>43657</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>43658</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>43665</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>43678</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43684</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>43684</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         <v>43686</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>43696</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>43698</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>43699</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>43711</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>43726</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>43733</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>43734</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>43734</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>43735</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5458,7 +5458,7 @@
         <v>43738</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5515,7 +5515,7 @@
         <v>43742</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         <v>43766</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>43774</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5686,7 +5686,7 @@
         <v>43783</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43784</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>43784</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>43788</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>43790</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5971,7 +5971,7 @@
         <v>43790</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
         <v>43794</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6085,7 +6085,7 @@
         <v>43795</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6142,7 +6142,7 @@
         <v>43802</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6199,7 +6199,7 @@
         <v>43816</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>43822</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>43837</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>43839</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         <v>43843</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         <v>43844</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6541,7 +6541,7 @@
         <v>43845</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         <v>43846</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6655,7 +6655,7 @@
         <v>43847</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6712,7 +6712,7 @@
         <v>43864</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>43879</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6826,7 +6826,7 @@
         <v>43879</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6883,7 +6883,7 @@
         <v>43882</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43886</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>43892</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43892</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43895</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43900</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43908</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         <v>43916</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         <v>43920</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7396,7 +7396,7 @@
         <v>43922</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7453,7 +7453,7 @@
         <v>43927</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7510,7 +7510,7 @@
         <v>43928</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         <v>43936</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>43938</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>43944</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7738,7 +7738,7 @@
         <v>43950</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         <v>43958</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7852,7 +7852,7 @@
         <v>43963</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
         <v>43975</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         <v>43978</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>43984</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>43985</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>43986</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>43986</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>43993</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>43993</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>44007</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8427,7 +8427,7 @@
         <v>44013</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8484,7 +8484,7 @@
         <v>44013</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>44025</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>44053</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>44105</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>44113</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         <v>44113</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>44117</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>44123</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8940,7 +8940,7 @@
         <v>44131</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>44131</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>44139</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>44147</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>44162</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>44167</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>44172</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>44182</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>44200</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>44211</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>44218</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44235</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>44242</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>44243</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>44243</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>44251</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44252</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44258</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44263</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44266</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44271</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44298</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44315</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44332</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>44333</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44335</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>44355</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>44357</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>44358</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>44376</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>44378</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>44378</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>44378</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>44389</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44389</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44427</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44439</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44445</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44446</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44447</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44456</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44461</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44461</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44488</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44496</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44510</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44515</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>44516</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>44516</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>44550</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>44568</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>44572</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>44582</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>44603</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>44614</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>44614</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>44628</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>44637</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>44672</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>44672</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>44726</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>44726</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>44727</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>44727</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>44740</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>44773</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>44795</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>44805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>44809</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>44809</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>44817</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>44821</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>44826</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>44826</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>44830</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>44831</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>44852</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>44852</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>44855</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>44864</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>44868</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>44896</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13639,7 +13639,7 @@
         <v>44896</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13696,7 +13696,7 @@
         <v>44896</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>44903</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>44903</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13877,7 +13877,7 @@
         <v>44916</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13934,7 +13934,7 @@
         <v>44949</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13991,7 +13991,7 @@
         <v>44953</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14048,7 +14048,7 @@
         <v>44953</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14105,7 +14105,7 @@
         <v>44953</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14162,7 +14162,7 @@
         <v>44953</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14219,7 +14219,7 @@
         <v>44956</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14276,7 +14276,7 @@
         <v>44959</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14333,7 +14333,7 @@
         <v>44964</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>44974</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14447,7 +14447,7 @@
         <v>44977</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14504,7 +14504,7 @@
         <v>44979</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>44984</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44984</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44991</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14732,7 +14732,7 @@
         <v>45000</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>45006</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14846,7 +14846,7 @@
         <v>45010</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>45011</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14960,7 +14960,7 @@
         <v>45015</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15017,7 +15017,7 @@
         <v>45015</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15074,7 +15074,7 @@
         <v>45035</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>45048</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15188,7 +15188,7 @@
         <v>45051</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15245,7 +15245,7 @@
         <v>45051</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15302,7 +15302,7 @@
         <v>45051</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15359,7 +15359,7 @@
         <v>45075</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15416,7 +15416,7 @@
         <v>45076</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15473,7 +15473,7 @@
         <v>45091</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15530,7 +15530,7 @@
         <v>45092</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15587,7 +15587,7 @@
         <v>45097</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15644,7 +15644,7 @@
         <v>45105</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15701,7 +15701,7 @@
         <v>45118</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15758,7 +15758,7 @@
         <v>45126</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15815,7 +15815,7 @@
         <v>45149</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15872,7 +15872,7 @@
         <v>45168</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>

--- a/Översikt ALINGSÅS.xlsx
+++ b/Översikt ALINGSÅS.xlsx
@@ -572,7 +572,7 @@
         <v>44358</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44855</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>43738</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43770</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
         <v>44803</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43417</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43986</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44244</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44848</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45092</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>43334</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>43342</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>43347</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>43388</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>43395</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>43410</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>43417</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>43423</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>43430</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>43430</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>43438</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43444</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43444</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43444</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43446</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>43446</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43447</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43453</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43462</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>43462</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>43462</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>43468</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43489</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>43490</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43494</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43494</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43494</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43495</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43518</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43549</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>43556</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>43558</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43565</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>43571</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>43578</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>43584</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>43591</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>43592</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43592</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>43599</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>43602</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>43602</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>43608</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43620</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43628</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43630</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43633</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43635</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43636</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>43648</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43648</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>43650</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>43653</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>43657</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>43658</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>43665</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>43678</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43684</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>43684</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         <v>43686</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>43696</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>43698</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>43699</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>43711</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>43726</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>43733</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>43734</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>43734</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>43735</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5458,7 +5458,7 @@
         <v>43738</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5515,7 +5515,7 @@
         <v>43742</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         <v>43766</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>43774</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5686,7 +5686,7 @@
         <v>43783</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43784</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>43784</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>43788</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>43790</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5971,7 +5971,7 @@
         <v>43790</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
         <v>43794</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6085,7 +6085,7 @@
         <v>43795</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6142,7 +6142,7 @@
         <v>43802</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6199,7 +6199,7 @@
         <v>43816</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>43822</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>43837</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>43839</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         <v>43843</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         <v>43844</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6541,7 +6541,7 @@
         <v>43845</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         <v>43846</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6655,7 +6655,7 @@
         <v>43847</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6712,7 +6712,7 @@
         <v>43864</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>43879</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6826,7 +6826,7 @@
         <v>43879</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6883,7 +6883,7 @@
         <v>43882</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43886</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>43892</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43892</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43895</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43900</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43908</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         <v>43916</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         <v>43920</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7396,7 +7396,7 @@
         <v>43922</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7453,7 +7453,7 @@
         <v>43927</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7510,7 +7510,7 @@
         <v>43928</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         <v>43936</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>43938</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>43944</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7738,7 +7738,7 @@
         <v>43950</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         <v>43958</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7852,7 +7852,7 @@
         <v>43963</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
         <v>43975</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         <v>43978</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>43984</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>43985</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>43986</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>43986</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>43993</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>43993</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>44007</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8427,7 +8427,7 @@
         <v>44013</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8484,7 +8484,7 @@
         <v>44013</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>44025</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>44053</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>44105</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>44113</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         <v>44113</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>44117</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>44123</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8940,7 +8940,7 @@
         <v>44131</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>44131</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>44139</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>44147</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>44162</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>44167</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>44172</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>44182</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>44200</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>44211</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>44218</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44235</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>44242</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>44243</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>44243</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>44251</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44252</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44258</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44263</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44266</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44271</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44298</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44315</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44332</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>44333</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44335</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>44355</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>44357</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>44358</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>44376</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>44378</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>44378</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>44378</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>44389</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44389</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44427</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44439</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44445</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44446</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44447</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44456</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44461</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44461</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44488</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44496</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44510</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44515</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>44516</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>44516</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>44550</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>44568</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>44572</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>44582</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>44603</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>44614</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>44614</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>44628</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>44637</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>44672</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>44672</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>44726</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>44726</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>44727</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>44727</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>44740</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>44773</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>44795</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>44805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>44809</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>44809</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>44817</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>44821</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>44826</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>44826</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>44830</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>44831</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>44852</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>44852</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>44855</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>44864</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>44868</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>44896</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13639,7 +13639,7 @@
         <v>44896</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13696,7 +13696,7 @@
         <v>44896</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>44903</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>44903</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13877,7 +13877,7 @@
         <v>44916</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13934,7 +13934,7 @@
         <v>44949</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13991,7 +13991,7 @@
         <v>44953</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14048,7 +14048,7 @@
         <v>44953</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14105,7 +14105,7 @@
         <v>44953</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14162,7 +14162,7 @@
         <v>44953</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14219,7 +14219,7 @@
         <v>44956</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14276,7 +14276,7 @@
         <v>44959</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14333,7 +14333,7 @@
         <v>44964</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>44974</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14447,7 +14447,7 @@
         <v>44977</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14504,7 +14504,7 @@
         <v>44979</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>44984</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44984</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44991</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14732,7 +14732,7 @@
         <v>45000</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>45006</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14846,7 +14846,7 @@
         <v>45010</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>45011</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14960,7 +14960,7 @@
         <v>45015</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15017,7 +15017,7 @@
         <v>45015</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15074,7 +15074,7 @@
         <v>45035</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>45048</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15188,7 +15188,7 @@
         <v>45051</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15245,7 +15245,7 @@
         <v>45051</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15302,7 +15302,7 @@
         <v>45051</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15359,7 +15359,7 @@
         <v>45075</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15416,7 +15416,7 @@
         <v>45076</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15473,7 +15473,7 @@
         <v>45091</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15530,7 +15530,7 @@
         <v>45092</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15587,7 +15587,7 @@
         <v>45097</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15644,7 +15644,7 @@
         <v>45105</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15701,7 +15701,7 @@
         <v>45118</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15758,7 +15758,7 @@
         <v>45126</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15815,7 +15815,7 @@
         <v>45149</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15872,7 +15872,7 @@
         <v>45168</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>

--- a/Översikt ALINGSÅS.xlsx
+++ b/Översikt ALINGSÅS.xlsx
@@ -572,7 +572,7 @@
         <v>44358</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44855</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>43738</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43770</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
         <v>44803</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43417</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43986</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44244</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44848</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45092</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>43334</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>43342</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>43347</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>43388</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>43395</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>43410</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>43417</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>43423</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>43430</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>43430</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>43438</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43444</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43444</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43444</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43446</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>43446</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43447</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43453</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43462</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>43462</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>43462</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>43468</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43489</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>43490</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43494</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43494</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43494</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43495</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43518</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43549</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>43556</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>43558</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43565</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>43571</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>43578</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>43584</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>43591</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>43592</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43592</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>43599</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>43602</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>43602</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>43608</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43620</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43628</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43630</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43633</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43635</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43636</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>43648</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43648</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>43650</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>43653</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>43657</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>43658</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>43665</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>43678</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43684</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>43684</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         <v>43686</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>43696</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>43698</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>43699</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>43711</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>43726</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>43733</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>43734</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>43734</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>43735</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5458,7 +5458,7 @@
         <v>43738</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5515,7 +5515,7 @@
         <v>43742</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         <v>43766</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>43774</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5686,7 +5686,7 @@
         <v>43783</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43784</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>43784</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>43788</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>43790</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5971,7 +5971,7 @@
         <v>43790</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
         <v>43794</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6085,7 +6085,7 @@
         <v>43795</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6142,7 +6142,7 @@
         <v>43802</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6199,7 +6199,7 @@
         <v>43816</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>43822</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>43837</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>43839</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         <v>43843</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         <v>43844</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6541,7 +6541,7 @@
         <v>43845</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         <v>43846</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6655,7 +6655,7 @@
         <v>43847</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6712,7 +6712,7 @@
         <v>43864</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>43879</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6826,7 +6826,7 @@
         <v>43879</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6883,7 +6883,7 @@
         <v>43882</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43886</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>43892</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43892</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43895</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43900</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43908</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         <v>43916</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         <v>43920</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7396,7 +7396,7 @@
         <v>43922</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7453,7 +7453,7 @@
         <v>43927</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7510,7 +7510,7 @@
         <v>43928</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         <v>43936</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>43938</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>43944</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7738,7 +7738,7 @@
         <v>43950</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         <v>43958</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7852,7 +7852,7 @@
         <v>43963</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
         <v>43975</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         <v>43978</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>43984</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>43985</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>43986</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>43986</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>43993</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>43993</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>44007</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8427,7 +8427,7 @@
         <v>44013</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8484,7 +8484,7 @@
         <v>44013</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>44025</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>44053</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>44105</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>44113</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         <v>44113</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>44117</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>44123</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8940,7 +8940,7 @@
         <v>44131</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>44131</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>44139</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>44147</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>44162</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>44167</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>44172</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>44182</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>44200</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>44211</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>44218</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44235</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>44242</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>44243</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>44243</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>44251</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44252</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44258</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44263</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44266</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44271</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44298</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44315</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44332</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>44333</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44335</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>44355</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>44357</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>44358</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>44376</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>44378</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>44378</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>44378</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>44389</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44389</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44427</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44439</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44445</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44446</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44447</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44456</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44461</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44461</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44488</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44496</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44510</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44515</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>44516</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>44516</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>44550</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>44568</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>44572</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>44582</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>44603</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>44614</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>44614</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>44628</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>44637</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>44672</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>44672</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>44726</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>44726</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>44727</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>44727</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>44740</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>44773</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>44795</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>44805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>44809</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>44809</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>44817</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>44821</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>44826</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>44826</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>44830</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>44831</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>44852</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>44852</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>44855</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>44864</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>44868</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>44896</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13639,7 +13639,7 @@
         <v>44896</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13696,7 +13696,7 @@
         <v>44896</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>44903</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>44903</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13877,7 +13877,7 @@
         <v>44916</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13934,7 +13934,7 @@
         <v>44949</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13991,7 +13991,7 @@
         <v>44953</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14048,7 +14048,7 @@
         <v>44953</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14105,7 +14105,7 @@
         <v>44953</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14162,7 +14162,7 @@
         <v>44953</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14219,7 +14219,7 @@
         <v>44956</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14276,7 +14276,7 @@
         <v>44959</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14333,7 +14333,7 @@
         <v>44964</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>44974</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14447,7 +14447,7 @@
         <v>44977</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14504,7 +14504,7 @@
         <v>44979</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>44984</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44984</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44991</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14732,7 +14732,7 @@
         <v>45000</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>45006</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14846,7 +14846,7 @@
         <v>45010</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>45011</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14960,7 +14960,7 @@
         <v>45015</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15017,7 +15017,7 @@
         <v>45015</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15074,7 +15074,7 @@
         <v>45035</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>45048</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15188,7 +15188,7 @@
         <v>45051</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15245,7 +15245,7 @@
         <v>45051</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15302,7 +15302,7 @@
         <v>45051</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15359,7 +15359,7 @@
         <v>45075</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15416,7 +15416,7 @@
         <v>45076</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15473,7 +15473,7 @@
         <v>45091</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15530,7 +15530,7 @@
         <v>45092</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15587,7 +15587,7 @@
         <v>45097</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15644,7 +15644,7 @@
         <v>45105</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15701,7 +15701,7 @@
         <v>45118</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15758,7 +15758,7 @@
         <v>45126</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15815,7 +15815,7 @@
         <v>45149</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15872,7 +15872,7 @@
         <v>45168</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
